--- a/7. Statistic Analysis/Datasheets/JAVA/Tools/APR_Efficiency - rsrepair.xlsx
+++ b/7. Statistic Analysis/Datasheets/JAVA/Tools/APR_Efficiency - rsrepair.xlsx
@@ -14,7 +14,94 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+  <si>
+    <t xml:space="preserve"><![CDATA[Var1]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[CyclomaticComplexity(CC)]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[MaintainabilityIndex]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbUniqueOperands]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbOperands]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbUniqueOperators]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbOperators]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[ProgramLength]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[VocabularySize]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[ProgramVolume]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[DifficultyLevel]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[ProgramLevel]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[EffortToImplement]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[TimeToImplement]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NewVar]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NewVar]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[CyclomaticComplexity(CC)]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[MaintainabilityIndex]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbUniqueOperands]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbOperands]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbUniqueOperators]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbOperators]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[ProgramLength]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[VocabularySize]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[ProgramVolume]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[DifficultyLevel]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[ProgramLevel]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[EffortToImplement]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[TimeToImplement]]></t>
+  </si>
   <si>
     <t xml:space="preserve"><![CDATA[RSRepair-A_Chart-1_Fixed]]></t>
   </si>
@@ -590,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC525"/>
+  <dimension ref="A1:AC526"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,175 +718,175 @@
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="n" s="0">
-        <v>2.830000</v>
-      </c>
-      <c r="C1" t="n" s="0">
-        <v>79.980000</v>
-      </c>
-      <c r="D1" t="n" s="0">
-        <v>18.670000</v>
-      </c>
-      <c r="E1" t="n" s="0">
-        <v>6.580000</v>
-      </c>
-      <c r="F1" t="n" s="0">
-        <v>9.830000</v>
-      </c>
-      <c r="G1" t="n" s="0">
-        <v>2.710000</v>
-      </c>
-      <c r="H1" t="n" s="0">
-        <v>9.290000</v>
-      </c>
-      <c r="I1" t="n" s="0">
-        <v>28.500000</v>
-      </c>
-      <c r="J1" t="n" s="0">
-        <v>46.750000</v>
-      </c>
-      <c r="K1" t="n" s="0">
-        <v>0.045000</v>
-      </c>
-      <c r="L1" t="n" s="0">
-        <v>0.023000</v>
-      </c>
-      <c r="M1" t="n" s="0">
-        <v>0.790000</v>
-      </c>
-      <c r="N1" t="n" s="0">
-        <v>0.044000</v>
-      </c>
-      <c r="O1" t="n" s="0">
-        <v/>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s" s="0">
+        <v>14</v>
       </c>
       <c r="P1" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="Q1" t="n" s="0">
-        <v>2.820000</v>
-      </c>
-      <c r="R1" t="n" s="0">
-        <v>80.000000</v>
-      </c>
-      <c r="S1" t="n" s="0">
-        <v>18.620000</v>
-      </c>
-      <c r="T1" t="n" s="0">
-        <v>6.580000</v>
-      </c>
-      <c r="U1" t="n" s="0">
-        <v>9.800000</v>
-      </c>
-      <c r="V1" t="n" s="0">
-        <v>2.710000</v>
-      </c>
-      <c r="W1" t="n" s="0">
-        <v>9.290000</v>
-      </c>
-      <c r="X1" t="n" s="0">
-        <v>28.420000</v>
-      </c>
-      <c r="Y1" t="n" s="0">
-        <v>46.710000</v>
-      </c>
-      <c r="Z1" t="n" s="0">
-        <v>0.045000</v>
-      </c>
-      <c r="AA1" t="n" s="0">
-        <v>0.023000</v>
-      </c>
-      <c r="AB1" t="n" s="0">
-        <v>0.790000</v>
-      </c>
-      <c r="AC1" t="n" s="0">
-        <v/>
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>3.000000</v>
+        <v>2.830000</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>80.620000</v>
+        <v>79.980000</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>13.950000</v>
+        <v>18.670000</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>5.520000</v>
+        <v>6.580000</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>10.900000</v>
+        <v>9.830000</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>3.100000</v>
+        <v>2.710000</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>8.620000</v>
+        <v>9.290000</v>
       </c>
       <c r="I2" t="n" s="0">
-        <v>24.860000</v>
+        <v>28.500000</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>44.040000</v>
+        <v>46.750000</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>0.710000</v>
+        <v>0.045000</v>
       </c>
       <c r="L2" t="n" s="0">
-        <v>0.093000</v>
+        <v>0.023000</v>
       </c>
       <c r="M2" t="n" s="0">
-        <v>26.690000</v>
+        <v>0.790000</v>
       </c>
       <c r="N2" t="n" s="0">
-        <v>1.480000</v>
+        <v>0.044000</v>
       </c>
       <c r="O2" t="n" s="0">
         <v/>
       </c>
       <c r="P2" t="s" s="0">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="Q2" t="n" s="0">
-        <v>3.050000</v>
+        <v>2.820000</v>
       </c>
       <c r="R2" t="n" s="0">
-        <v>80.480000</v>
+        <v>80.000000</v>
       </c>
       <c r="S2" t="n" s="0">
-        <v>14.190000</v>
+        <v>18.620000</v>
       </c>
       <c r="T2" t="n" s="0">
-        <v>5.520000</v>
+        <v>6.580000</v>
       </c>
       <c r="U2" t="n" s="0">
-        <v>11.140000</v>
+        <v>9.800000</v>
       </c>
       <c r="V2" t="n" s="0">
-        <v>3.190000</v>
+        <v>2.710000</v>
       </c>
       <c r="W2" t="n" s="0">
-        <v>8.710000</v>
+        <v>9.290000</v>
       </c>
       <c r="X2" t="n" s="0">
-        <v>25.330000</v>
+        <v>28.420000</v>
       </c>
       <c r="Y2" t="n" s="0">
-        <v>44.830000</v>
+        <v>46.710000</v>
       </c>
       <c r="Z2" t="n" s="0">
-        <v>0.480000</v>
+        <v>0.045000</v>
       </c>
       <c r="AA2" t="n" s="0">
-        <v>0.083000</v>
+        <v>0.023000</v>
       </c>
       <c r="AB2" t="n" s="0">
-        <v>15.560000</v>
+        <v>0.790000</v>
       </c>
       <c r="AC2" t="n" s="0">
         <v/>
@@ -807,88 +894,88 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>2.240000</v>
+        <v>3.000000</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>83.680000</v>
+        <v>80.620000</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>9.380000</v>
+        <v>13.950000</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>4.290000</v>
+        <v>5.520000</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>5.710000</v>
+        <v>10.900000</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>2.590000</v>
+        <v>3.100000</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>6.880000</v>
+        <v>8.620000</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>15.090000</v>
+        <v>24.860000</v>
       </c>
       <c r="J3" t="n" s="0">
-        <v>28.850000</v>
+        <v>44.040000</v>
       </c>
       <c r="K3" t="n" s="0">
-        <v>0.059000</v>
+        <v>0.710000</v>
       </c>
       <c r="L3" t="n" s="0">
-        <v>0.015000</v>
+        <v>0.093000</v>
       </c>
       <c r="M3" t="n" s="0">
-        <v>0.830000</v>
+        <v>26.690000</v>
       </c>
       <c r="N3" t="n" s="0">
-        <v>0.046000</v>
+        <v>1.480000</v>
       </c>
       <c r="O3" t="n" s="0">
         <v/>
       </c>
       <c r="P3" t="s" s="0">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="Q3" t="n" s="0">
-        <v>2.210000</v>
+        <v>3.050000</v>
       </c>
       <c r="R3" t="n" s="0">
-        <v>83.760000</v>
+        <v>80.480000</v>
       </c>
       <c r="S3" t="n" s="0">
-        <v>9.210000</v>
+        <v>14.190000</v>
       </c>
       <c r="T3" t="n" s="0">
-        <v>4.260000</v>
+        <v>5.520000</v>
       </c>
       <c r="U3" t="n" s="0">
-        <v>5.620000</v>
+        <v>11.140000</v>
       </c>
       <c r="V3" t="n" s="0">
-        <v>2.650000</v>
+        <v>3.190000</v>
       </c>
       <c r="W3" t="n" s="0">
-        <v>6.910000</v>
+        <v>8.710000</v>
       </c>
       <c r="X3" t="n" s="0">
-        <v>14.820000</v>
+        <v>25.330000</v>
       </c>
       <c r="Y3" t="n" s="0">
-        <v>28.840000</v>
+        <v>44.830000</v>
       </c>
       <c r="Z3" t="n" s="0">
-        <v>0.059000</v>
+        <v>0.480000</v>
       </c>
       <c r="AA3" t="n" s="0">
-        <v>0.015000</v>
+        <v>0.083000</v>
       </c>
       <c r="AB3" t="n" s="0">
-        <v>0.830000</v>
+        <v>15.560000</v>
       </c>
       <c r="AC3" t="n" s="0">
         <v/>
@@ -896,88 +983,88 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>5.310000</v>
+        <v>2.240000</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>78.870000</v>
+        <v>83.680000</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>10.350000</v>
+        <v>9.380000</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>4.910000</v>
+        <v>4.290000</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>11.470000</v>
+        <v>5.710000</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>3.350000</v>
+        <v>2.590000</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>8.260000</v>
+        <v>6.880000</v>
       </c>
       <c r="I4" t="n" s="0">
-        <v>21.820000</v>
+        <v>15.090000</v>
       </c>
       <c r="J4" t="n" s="0">
-        <v>37.210000</v>
+        <v>28.850000</v>
       </c>
       <c r="K4" t="n" s="0">
-        <v>2.330000</v>
+        <v>0.059000</v>
       </c>
       <c r="L4" t="n" s="0">
-        <v>0.038000</v>
+        <v>0.015000</v>
       </c>
       <c r="M4" t="n" s="0">
-        <v>384.740000</v>
+        <v>0.830000</v>
       </c>
       <c r="N4" t="n" s="0">
-        <v>21.370000</v>
+        <v>0.046000</v>
       </c>
       <c r="O4" t="n" s="0">
         <v/>
       </c>
       <c r="P4" t="s" s="0">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="Q4" t="n" s="0">
-        <v>5.310000</v>
+        <v>2.210000</v>
       </c>
       <c r="R4" t="n" s="0">
-        <v>78.870000</v>
+        <v>83.760000</v>
       </c>
       <c r="S4" t="n" s="0">
-        <v>10.330000</v>
+        <v>9.210000</v>
       </c>
       <c r="T4" t="n" s="0">
-        <v>4.920000</v>
+        <v>4.260000</v>
       </c>
       <c r="U4" t="n" s="0">
-        <v>11.440000</v>
+        <v>5.620000</v>
       </c>
       <c r="V4" t="n" s="0">
-        <v>3.350000</v>
+        <v>2.650000</v>
       </c>
       <c r="W4" t="n" s="0">
-        <v>8.270000</v>
+        <v>6.910000</v>
       </c>
       <c r="X4" t="n" s="0">
-        <v>21.770000</v>
+        <v>14.820000</v>
       </c>
       <c r="Y4" t="n" s="0">
-        <v>37.230000</v>
+        <v>28.840000</v>
       </c>
       <c r="Z4" t="n" s="0">
-        <v>2.330000</v>
+        <v>0.059000</v>
       </c>
       <c r="AA4" t="n" s="0">
-        <v>0.038000</v>
+        <v>0.015000</v>
       </c>
       <c r="AB4" t="n" s="0">
-        <v>384.740000</v>
+        <v>0.830000</v>
       </c>
       <c r="AC4" t="n" s="0">
         <v/>
@@ -985,88 +1072,88 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>5.870000</v>
+        <v>5.310000</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>71.270000</v>
+        <v>78.870000</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>24.470000</v>
+        <v>10.350000</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>7.130000</v>
+        <v>4.910000</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>20.440000</v>
+        <v>11.470000</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>4.560000</v>
+        <v>3.350000</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>11.690000</v>
+        <v>8.260000</v>
       </c>
       <c r="I5" t="n" s="0">
-        <v>44.910000</v>
+        <v>21.820000</v>
       </c>
       <c r="J5" t="n" s="0">
-        <v>65.190000</v>
+        <v>37.210000</v>
       </c>
       <c r="K5" t="n" s="0">
-        <v>0.110000</v>
+        <v>2.330000</v>
       </c>
       <c r="L5" t="n" s="0">
-        <v>0.003000</v>
+        <v>0.038000</v>
       </c>
       <c r="M5" t="n" s="0">
-        <v>1.960000</v>
+        <v>384.740000</v>
       </c>
       <c r="N5" t="n" s="0">
-        <v>0.110000</v>
+        <v>21.370000</v>
       </c>
       <c r="O5" t="n" s="0">
         <v/>
       </c>
       <c r="P5" t="s" s="0">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="Q5" t="n" s="0">
-        <v>5.890000</v>
+        <v>5.310000</v>
       </c>
       <c r="R5" t="n" s="0">
-        <v>71.020000</v>
+        <v>78.870000</v>
       </c>
       <c r="S5" t="n" s="0">
-        <v>24.560000</v>
+        <v>10.330000</v>
       </c>
       <c r="T5" t="n" s="0">
-        <v>7.150000</v>
+        <v>4.920000</v>
       </c>
       <c r="U5" t="n" s="0">
-        <v>20.470000</v>
+        <v>11.440000</v>
       </c>
       <c r="V5" t="n" s="0">
-        <v>4.550000</v>
+        <v>3.350000</v>
       </c>
       <c r="W5" t="n" s="0">
-        <v>11.690000</v>
+        <v>8.270000</v>
       </c>
       <c r="X5" t="n" s="0">
-        <v>45.040000</v>
+        <v>21.770000</v>
       </c>
       <c r="Y5" t="n" s="0">
-        <v>65.260000</v>
+        <v>37.230000</v>
       </c>
       <c r="Z5" t="n" s="0">
-        <v>0.110000</v>
+        <v>2.330000</v>
       </c>
       <c r="AA5" t="n" s="0">
-        <v>0.003000</v>
+        <v>0.038000</v>
       </c>
       <c r="AB5" t="n" s="0">
-        <v>1.960000</v>
+        <v>384.740000</v>
       </c>
       <c r="AC5" t="n" s="0">
         <v/>
@@ -1074,88 +1161,88 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>5.100000</v>
+        <v>5.870000</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>69.710000</v>
+        <v>71.270000</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>22.520000</v>
+        <v>24.470000</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>9.520000</v>
+        <v>7.130000</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>17.900000</v>
+        <v>20.440000</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>5.570000</v>
+        <v>4.560000</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>15.100000</v>
+        <v>11.690000</v>
       </c>
       <c r="I6" t="n" s="0">
-        <v>40.430000</v>
+        <v>44.910000</v>
       </c>
       <c r="J6" t="n" s="0">
-        <v>84.120000</v>
+        <v>65.190000</v>
       </c>
       <c r="K6" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.110000</v>
       </c>
       <c r="L6" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.003000</v>
       </c>
       <c r="M6" t="n" s="0">
-        <v>0.000000</v>
+        <v>1.960000</v>
       </c>
       <c r="N6" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.110000</v>
       </c>
       <c r="O6" t="n" s="0">
         <v/>
       </c>
       <c r="P6" t="s" s="0">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="Q6" t="n" s="0">
-        <v>5.290000</v>
+        <v>5.890000</v>
       </c>
       <c r="R6" t="n" s="0">
-        <v>69.520000</v>
+        <v>71.020000</v>
       </c>
       <c r="S6" t="n" s="0">
-        <v>23.000000</v>
+        <v>24.560000</v>
       </c>
       <c r="T6" t="n" s="0">
-        <v>9.670000</v>
+        <v>7.150000</v>
       </c>
       <c r="U6" t="n" s="0">
-        <v>18.570000</v>
+        <v>20.470000</v>
       </c>
       <c r="V6" t="n" s="0">
-        <v>5.570000</v>
+        <v>4.550000</v>
       </c>
       <c r="W6" t="n" s="0">
-        <v>15.240000</v>
+        <v>11.690000</v>
       </c>
       <c r="X6" t="n" s="0">
-        <v>41.570000</v>
+        <v>45.040000</v>
       </c>
       <c r="Y6" t="n" s="0">
-        <v>85.430000</v>
+        <v>65.260000</v>
       </c>
       <c r="Z6" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.110000</v>
       </c>
       <c r="AA6" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.003000</v>
       </c>
       <c r="AB6" t="n" s="0">
-        <v>0.000000</v>
+        <v>1.960000</v>
       </c>
       <c r="AC6" t="n" s="0">
         <v/>
@@ -1163,88 +1250,88 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>3.610000</v>
+        <v>5.100000</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>78.610000</v>
+        <v>69.710000</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>16.970000</v>
+        <v>22.520000</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>7.450000</v>
+        <v>9.520000</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>12.610000</v>
+        <v>17.900000</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>3.710000</v>
+        <v>5.570000</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>11.160000</v>
+        <v>15.100000</v>
       </c>
       <c r="I7" t="n" s="0">
-        <v>29.580000</v>
+        <v>40.430000</v>
       </c>
       <c r="J7" t="n" s="0">
-        <v>56.270000</v>
+        <v>84.120000</v>
       </c>
       <c r="K7" t="n" s="0">
-        <v>0.290000</v>
+        <v>0.000000</v>
       </c>
       <c r="L7" t="n" s="0">
-        <v>0.002400</v>
+        <v>0.000000</v>
       </c>
       <c r="M7" t="n" s="0">
-        <v>84.460000</v>
+        <v>0.000000</v>
       </c>
       <c r="N7" t="n" s="0">
-        <v>4.690000</v>
+        <v>0.000000</v>
       </c>
       <c r="O7" t="n" s="0">
         <v/>
       </c>
       <c r="P7" t="s" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="Q7" t="n" s="0">
-        <v>3.370000</v>
+        <v>5.290000</v>
       </c>
       <c r="R7" t="n" s="0">
-        <v>78.820000</v>
+        <v>69.520000</v>
       </c>
       <c r="S7" t="n" s="0">
-        <v>16.260000</v>
+        <v>23.000000</v>
       </c>
       <c r="T7" t="n" s="0">
-        <v>7.370000</v>
+        <v>9.670000</v>
       </c>
       <c r="U7" t="n" s="0">
-        <v>11.630000</v>
+        <v>18.570000</v>
       </c>
       <c r="V7" t="n" s="0">
-        <v>3.630000</v>
+        <v>5.570000</v>
       </c>
       <c r="W7" t="n" s="0">
-        <v>11.000000</v>
+        <v>15.240000</v>
       </c>
       <c r="X7" t="n" s="0">
-        <v>27.890000</v>
+        <v>41.570000</v>
       </c>
       <c r="Y7" t="n" s="0">
-        <v>54.680000</v>
+        <v>85.430000</v>
       </c>
       <c r="Z7" t="n" s="0">
-        <v>0.290000</v>
+        <v>0.000000</v>
       </c>
       <c r="AA7" t="n" s="0">
-        <v>0.002400</v>
+        <v>0.000000</v>
       </c>
       <c r="AB7" t="n" s="0">
-        <v>84.460000</v>
+        <v>0.000000</v>
       </c>
       <c r="AC7" t="n" s="0">
         <v/>
@@ -1252,88 +1339,88 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>2.130000</v>
+        <v>3.610000</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>85.800000</v>
+        <v>78.610000</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>6.450000</v>
+        <v>16.970000</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>3.520000</v>
+        <v>7.450000</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>5.200000</v>
+        <v>12.610000</v>
       </c>
       <c r="G8" t="n" s="0">
-        <v>2.430000</v>
+        <v>3.710000</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>5.950000</v>
+        <v>11.160000</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>11.640000</v>
+        <v>29.580000</v>
       </c>
       <c r="J8" t="n" s="0">
-        <v>23.020000</v>
+        <v>56.270000</v>
       </c>
       <c r="K8" t="n" s="0">
-        <v>0.360000</v>
+        <v>0.290000</v>
       </c>
       <c r="L8" t="n" s="0">
-        <v>0.094000</v>
+        <v>0.002400</v>
       </c>
       <c r="M8" t="n" s="0">
-        <v>6.880000</v>
+        <v>84.460000</v>
       </c>
       <c r="N8" t="n" s="0">
-        <v>0.380000</v>
+        <v>4.690000</v>
       </c>
       <c r="O8" t="n" s="0">
         <v/>
       </c>
       <c r="P8" t="s" s="0">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="Q8" t="n" s="0">
-        <v>2.110000</v>
+        <v>3.370000</v>
       </c>
       <c r="R8" t="n" s="0">
-        <v>85.620000</v>
+        <v>78.820000</v>
       </c>
       <c r="S8" t="n" s="0">
-        <v>6.490000</v>
+        <v>16.260000</v>
       </c>
       <c r="T8" t="n" s="0">
-        <v>3.580000</v>
+        <v>7.370000</v>
       </c>
       <c r="U8" t="n" s="0">
-        <v>5.180000</v>
+        <v>11.630000</v>
       </c>
       <c r="V8" t="n" s="0">
-        <v>2.470000</v>
+        <v>3.630000</v>
       </c>
       <c r="W8" t="n" s="0">
-        <v>6.050000</v>
+        <v>11.000000</v>
       </c>
       <c r="X8" t="n" s="0">
-        <v>11.670000</v>
+        <v>27.890000</v>
       </c>
       <c r="Y8" t="n" s="0">
-        <v>23.330000</v>
+        <v>54.680000</v>
       </c>
       <c r="Z8" t="n" s="0">
-        <v>0.360000</v>
+        <v>0.290000</v>
       </c>
       <c r="AA8" t="n" s="0">
-        <v>0.096000</v>
+        <v>0.002400</v>
       </c>
       <c r="AB8" t="n" s="0">
-        <v>7.010000</v>
+        <v>84.460000</v>
       </c>
       <c r="AC8" t="n" s="0">
         <v/>
@@ -1341,88 +1428,88 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>4.390000</v>
+        <v>2.130000</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>73.860000</v>
+        <v>85.800000</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>17.890000</v>
+        <v>6.450000</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>6.540000</v>
+        <v>3.520000</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>16.930000</v>
+        <v>5.200000</v>
       </c>
       <c r="G9" t="n" s="0">
-        <v>4.680000</v>
+        <v>2.430000</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>11.210000</v>
+        <v>5.950000</v>
       </c>
       <c r="I9" t="n" s="0">
-        <v>34.820000</v>
+        <v>11.640000</v>
       </c>
       <c r="J9" t="n" s="0">
-        <v>60.160000</v>
+        <v>23.020000</v>
       </c>
       <c r="K9" t="n" s="0">
-        <v>0.071000</v>
+        <v>0.360000</v>
       </c>
       <c r="L9" t="n" s="0">
-        <v>0.018000</v>
+        <v>0.094000</v>
       </c>
       <c r="M9" t="n" s="0">
-        <v>0.740000</v>
+        <v>6.880000</v>
       </c>
       <c r="N9" t="n" s="0">
-        <v>0.041000</v>
+        <v>0.380000</v>
       </c>
       <c r="O9" t="n" s="0">
         <v/>
       </c>
       <c r="P9" t="s" s="0">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="Q9" t="n" s="0">
-        <v>4.320000</v>
+        <v>2.110000</v>
       </c>
       <c r="R9" t="n" s="0">
-        <v>76.610000</v>
+        <v>85.620000</v>
       </c>
       <c r="S9" t="n" s="0">
-        <v>15.940000</v>
+        <v>6.490000</v>
       </c>
       <c r="T9" t="n" s="0">
-        <v>5.900000</v>
+        <v>3.580000</v>
       </c>
       <c r="U9" t="n" s="0">
-        <v>15.100000</v>
+        <v>5.180000</v>
       </c>
       <c r="V9" t="n" s="0">
-        <v>4.160000</v>
+        <v>2.470000</v>
       </c>
       <c r="W9" t="n" s="0">
-        <v>10.060000</v>
+        <v>6.050000</v>
       </c>
       <c r="X9" t="n" s="0">
-        <v>31.030000</v>
+        <v>11.670000</v>
       </c>
       <c r="Y9" t="n" s="0">
-        <v>53.620000</v>
+        <v>23.330000</v>
       </c>
       <c r="Z9" t="n" s="0">
-        <v>0.065000</v>
+        <v>0.360000</v>
       </c>
       <c r="AA9" t="n" s="0">
-        <v>0.016000</v>
+        <v>0.096000</v>
       </c>
       <c r="AB9" t="n" s="0">
-        <v>0.670000</v>
+        <v>7.010000</v>
       </c>
       <c r="AC9" t="n" s="0">
         <v/>
@@ -1430,88 +1517,88 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>7.670000</v>
+        <v>4.390000</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>65.830000</v>
+        <v>73.860000</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>22.500000</v>
+        <v>17.890000</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>7.000000</v>
+        <v>6.540000</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>21.670000</v>
+        <v>16.930000</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>6.670000</v>
+        <v>4.680000</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>13.670000</v>
+        <v>11.210000</v>
       </c>
       <c r="I10" t="n" s="0">
-        <v>44.170000</v>
+        <v>34.820000</v>
       </c>
       <c r="J10" t="n" s="0">
-        <v>74.520000</v>
+        <v>60.160000</v>
       </c>
       <c r="K10" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.071000</v>
       </c>
       <c r="L10" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.018000</v>
       </c>
       <c r="M10" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.740000</v>
       </c>
       <c r="N10" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.041000</v>
       </c>
       <c r="O10" t="n" s="0">
         <v/>
       </c>
       <c r="P10" t="s" s="0">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="Q10" t="n" s="0">
-        <v>7.000000</v>
+        <v>4.320000</v>
       </c>
       <c r="R10" t="n" s="0">
-        <v>66.170000</v>
+        <v>76.610000</v>
       </c>
       <c r="S10" t="n" s="0">
-        <v>21.000000</v>
+        <v>15.940000</v>
       </c>
       <c r="T10" t="n" s="0">
-        <v>7.000000</v>
+        <v>5.900000</v>
       </c>
       <c r="U10" t="n" s="0">
-        <v>19.330000</v>
+        <v>15.100000</v>
       </c>
       <c r="V10" t="n" s="0">
-        <v>6.170000</v>
+        <v>4.160000</v>
       </c>
       <c r="W10" t="n" s="0">
-        <v>13.170000</v>
+        <v>10.060000</v>
       </c>
       <c r="X10" t="n" s="0">
-        <v>40.330000</v>
+        <v>31.030000</v>
       </c>
       <c r="Y10" t="n" s="0">
-        <v>70.190000</v>
+        <v>53.620000</v>
       </c>
       <c r="Z10" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.065000</v>
       </c>
       <c r="AA10" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.016000</v>
       </c>
       <c r="AB10" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.670000</v>
       </c>
       <c r="AC10" t="n" s="0">
         <v/>
@@ -1519,88 +1606,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>9.860000</v>
+        <v>7.670000</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>67.020000</v>
+        <v>65.830000</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>35.070000</v>
+        <v>22.500000</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>12.730000</v>
+        <v>7.000000</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>32.300000</v>
+        <v>21.670000</v>
       </c>
       <c r="G11" t="n" s="0">
-        <v>5.640000</v>
+        <v>6.670000</v>
       </c>
       <c r="H11" t="n" s="0">
-        <v>18.360000</v>
+        <v>13.670000</v>
       </c>
       <c r="I11" t="n" s="0">
-        <v>67.360000</v>
+        <v>44.170000</v>
       </c>
       <c r="J11" t="n" s="0">
-        <v>114.170000</v>
+        <v>74.520000</v>
       </c>
       <c r="K11" t="n" s="0">
-        <v>0.550000</v>
+        <v>0.000000</v>
       </c>
       <c r="L11" t="n" s="0">
-        <v>0.012000</v>
+        <v>0.000000</v>
       </c>
       <c r="M11" t="n" s="0">
-        <v>488.780000</v>
+        <v>0.000000</v>
       </c>
       <c r="N11" t="n" s="0">
-        <v>27.150000</v>
+        <v>0.000000</v>
       </c>
       <c r="O11" t="n" s="0">
         <v/>
       </c>
       <c r="P11" t="s" s="0">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="Q11" t="n" s="0">
-        <v>9.820000</v>
+        <v>7.000000</v>
       </c>
       <c r="R11" t="n" s="0">
-        <v>67.140000</v>
+        <v>66.170000</v>
       </c>
       <c r="S11" t="n" s="0">
-        <v>34.860000</v>
+        <v>21.000000</v>
       </c>
       <c r="T11" t="n" s="0">
-        <v>12.750000</v>
+        <v>7.000000</v>
       </c>
       <c r="U11" t="n" s="0">
-        <v>32.090000</v>
+        <v>19.330000</v>
       </c>
       <c r="V11" t="n" s="0">
-        <v>5.570000</v>
+        <v>6.170000</v>
       </c>
       <c r="W11" t="n" s="0">
-        <v>18.320000</v>
+        <v>13.170000</v>
       </c>
       <c r="X11" t="n" s="0">
-        <v>66.950000</v>
+        <v>40.330000</v>
       </c>
       <c r="Y11" t="n" s="0">
-        <v>113.730000</v>
+        <v>70.190000</v>
       </c>
       <c r="Z11" t="n" s="0">
-        <v>0.550000</v>
+        <v>0.000000</v>
       </c>
       <c r="AA11" t="n" s="0">
-        <v>0.012000</v>
+        <v>0.000000</v>
       </c>
       <c r="AB11" t="n" s="0">
-        <v>488.780000</v>
+        <v>0.000000</v>
       </c>
       <c r="AC11" t="n" s="0">
         <v/>
@@ -1608,88 +1695,88 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>3.110000</v>
+        <v>9.860000</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>77.560000</v>
+        <v>67.020000</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>12.110000</v>
+        <v>35.070000</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>5.560000</v>
+        <v>12.730000</v>
       </c>
       <c r="F12" t="n" s="0">
-        <v>10.440000</v>
+        <v>32.300000</v>
       </c>
       <c r="G12" t="n" s="0">
-        <v>3.000000</v>
+        <v>5.640000</v>
       </c>
       <c r="H12" t="n" s="0">
-        <v>8.560000</v>
+        <v>18.360000</v>
       </c>
       <c r="I12" t="n" s="0">
-        <v>22.560000</v>
+        <v>67.360000</v>
       </c>
       <c r="J12" t="n" s="0">
-        <v>40.270000</v>
+        <v>114.170000</v>
       </c>
       <c r="K12" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.550000</v>
       </c>
       <c r="L12" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.012000</v>
       </c>
       <c r="M12" t="n" s="0">
-        <v>0.000000</v>
+        <v>488.780000</v>
       </c>
       <c r="N12" t="n" s="0">
-        <v>0.000000</v>
+        <v>27.150000</v>
       </c>
       <c r="O12" t="n" s="0">
         <v/>
       </c>
       <c r="P12" t="s" s="0">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="Q12" t="n" s="0">
-        <v>4.330000</v>
+        <v>9.820000</v>
       </c>
       <c r="R12" t="n" s="0">
-        <v>76.780000</v>
+        <v>67.140000</v>
       </c>
       <c r="S12" t="n" s="0">
-        <v>13.780000</v>
+        <v>34.860000</v>
       </c>
       <c r="T12" t="n" s="0">
-        <v>5.780000</v>
+        <v>12.750000</v>
       </c>
       <c r="U12" t="n" s="0">
-        <v>14.440000</v>
+        <v>32.090000</v>
       </c>
       <c r="V12" t="n" s="0">
-        <v>3.110000</v>
+        <v>5.570000</v>
       </c>
       <c r="W12" t="n" s="0">
-        <v>8.890000</v>
+        <v>18.320000</v>
       </c>
       <c r="X12" t="n" s="0">
-        <v>28.220000</v>
+        <v>66.950000</v>
       </c>
       <c r="Y12" t="n" s="0">
-        <v>44.470000</v>
+        <v>113.730000</v>
       </c>
       <c r="Z12" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.550000</v>
       </c>
       <c r="AA12" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.012000</v>
       </c>
       <c r="AB12" t="n" s="0">
-        <v>0.000000</v>
+        <v>488.780000</v>
       </c>
       <c r="AC12" t="n" s="0">
         <v/>
@@ -1697,7 +1784,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B13" t="n" s="0">
         <v>3.110000</v>
@@ -1742,34 +1829,34 @@
         <v/>
       </c>
       <c r="P13" t="s" s="0">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="Q13" t="n" s="0">
-        <v>4.440000</v>
+        <v>4.330000</v>
       </c>
       <c r="R13" t="n" s="0">
-        <v>76.890000</v>
+        <v>76.780000</v>
       </c>
       <c r="S13" t="n" s="0">
-        <v>14.110000</v>
+        <v>13.780000</v>
       </c>
       <c r="T13" t="n" s="0">
-        <v>6.000000</v>
+        <v>5.780000</v>
       </c>
       <c r="U13" t="n" s="0">
-        <v>15.670000</v>
+        <v>14.440000</v>
       </c>
       <c r="V13" t="n" s="0">
-        <v>3.000000</v>
+        <v>3.110000</v>
       </c>
       <c r="W13" t="n" s="0">
-        <v>9.000000</v>
+        <v>8.890000</v>
       </c>
       <c r="X13" t="n" s="0">
-        <v>29.780000</v>
+        <v>28.220000</v>
       </c>
       <c r="Y13" t="n" s="0">
-        <v>45.690000</v>
+        <v>44.470000</v>
       </c>
       <c r="Z13" t="n" s="0">
         <v>0.000000</v>
@@ -1786,34 +1873,34 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>4.380000</v>
+        <v>3.110000</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>78.060000</v>
+        <v>77.560000</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>15.190000</v>
+        <v>12.110000</v>
       </c>
       <c r="E14" t="n" s="0">
-        <v>6.190000</v>
+        <v>5.560000</v>
       </c>
       <c r="F14" t="n" s="0">
-        <v>16.120000</v>
+        <v>10.440000</v>
       </c>
       <c r="G14" t="n" s="0">
-        <v>4.120000</v>
+        <v>3.000000</v>
       </c>
       <c r="H14" t="n" s="0">
-        <v>10.310000</v>
+        <v>8.560000</v>
       </c>
       <c r="I14" t="n" s="0">
-        <v>31.310000</v>
+        <v>22.560000</v>
       </c>
       <c r="J14" t="n" s="0">
-        <v>53.560000</v>
+        <v>40.270000</v>
       </c>
       <c r="K14" t="n" s="0">
         <v>0.000000</v>
@@ -1831,34 +1918,34 @@
         <v/>
       </c>
       <c r="P14" t="s" s="0">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="Q14" t="n" s="0">
-        <v>4.060000</v>
+        <v>4.440000</v>
       </c>
       <c r="R14" t="n" s="0">
-        <v>78.690000</v>
+        <v>76.890000</v>
       </c>
       <c r="S14" t="n" s="0">
-        <v>14.690000</v>
+        <v>14.110000</v>
       </c>
       <c r="T14" t="n" s="0">
-        <v>6.190000</v>
+        <v>6.000000</v>
       </c>
       <c r="U14" t="n" s="0">
-        <v>14.940000</v>
+        <v>15.670000</v>
       </c>
       <c r="V14" t="n" s="0">
-        <v>4.120000</v>
+        <v>3.000000</v>
       </c>
       <c r="W14" t="n" s="0">
-        <v>10.310000</v>
+        <v>9.000000</v>
       </c>
       <c r="X14" t="n" s="0">
-        <v>29.620000</v>
+        <v>29.780000</v>
       </c>
       <c r="Y14" t="n" s="0">
-        <v>52.830000</v>
+        <v>45.690000</v>
       </c>
       <c r="Z14" t="n" s="0">
         <v>0.000000</v>
@@ -1875,88 +1962,88 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>2.660000</v>
+        <v>4.380000</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>82.900000</v>
+        <v>78.060000</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>7.020000</v>
+        <v>15.190000</v>
       </c>
       <c r="E15" t="n" s="0">
-        <v>4.000000</v>
+        <v>6.190000</v>
       </c>
       <c r="F15" t="n" s="0">
-        <v>6.800000</v>
+        <v>16.120000</v>
       </c>
       <c r="G15" t="n" s="0">
-        <v>2.900000</v>
+        <v>4.120000</v>
       </c>
       <c r="H15" t="n" s="0">
-        <v>6.900000</v>
+        <v>10.310000</v>
       </c>
       <c r="I15" t="n" s="0">
-        <v>13.830000</v>
+        <v>31.310000</v>
       </c>
       <c r="J15" t="n" s="0">
-        <v>28.120000</v>
+        <v>53.560000</v>
       </c>
       <c r="K15" t="n" s="0">
-        <v>0.560000</v>
+        <v>0.000000</v>
       </c>
       <c r="L15" t="n" s="0">
-        <v>0.120000</v>
+        <v>0.000000</v>
       </c>
       <c r="M15" t="n" s="0">
-        <v>6.300000</v>
+        <v>0.000000</v>
       </c>
       <c r="N15" t="n" s="0">
-        <v>0.350000</v>
+        <v>0.000000</v>
       </c>
       <c r="O15" t="n" s="0">
         <v/>
       </c>
       <c r="P15" t="s" s="0">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="Q15" t="n" s="0">
-        <v>2.540000</v>
+        <v>4.060000</v>
       </c>
       <c r="R15" t="n" s="0">
-        <v>83.730000</v>
+        <v>78.690000</v>
       </c>
       <c r="S15" t="n" s="0">
-        <v>6.800000</v>
+        <v>14.690000</v>
       </c>
       <c r="T15" t="n" s="0">
-        <v>3.930000</v>
+        <v>6.190000</v>
       </c>
       <c r="U15" t="n" s="0">
-        <v>6.390000</v>
+        <v>14.940000</v>
       </c>
       <c r="V15" t="n" s="0">
-        <v>2.780000</v>
+        <v>4.120000</v>
       </c>
       <c r="W15" t="n" s="0">
-        <v>6.710000</v>
+        <v>10.310000</v>
       </c>
       <c r="X15" t="n" s="0">
-        <v>13.200000</v>
+        <v>29.620000</v>
       </c>
       <c r="Y15" t="n" s="0">
-        <v>27.000000</v>
+        <v>52.830000</v>
       </c>
       <c r="Z15" t="n" s="0">
-        <v>0.560000</v>
+        <v>0.000000</v>
       </c>
       <c r="AA15" t="n" s="0">
-        <v>0.120000</v>
+        <v>0.000000</v>
       </c>
       <c r="AB15" t="n" s="0">
-        <v>6.300000</v>
+        <v>0.000000</v>
       </c>
       <c r="AC15" t="n" s="0">
         <v/>
@@ -1964,88 +2051,88 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>2.390000</v>
+        <v>2.660000</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>81.000000</v>
+        <v>82.900000</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>9.500000</v>
+        <v>7.020000</v>
       </c>
       <c r="E16" t="n" s="0">
-        <v>5.640000</v>
+        <v>4.000000</v>
       </c>
       <c r="F16" t="n" s="0">
-        <v>6.640000</v>
+        <v>6.800000</v>
       </c>
       <c r="G16" t="n" s="0">
-        <v>2.710000</v>
+        <v>2.900000</v>
       </c>
       <c r="H16" t="n" s="0">
-        <v>8.360000</v>
+        <v>6.900000</v>
       </c>
       <c r="I16" t="n" s="0">
-        <v>16.140000</v>
+        <v>13.830000</v>
       </c>
       <c r="J16" t="n" s="0">
-        <v>33.640000</v>
+        <v>28.120000</v>
       </c>
       <c r="K16" t="n" s="0">
-        <v>0.071000</v>
+        <v>0.560000</v>
       </c>
       <c r="L16" t="n" s="0">
-        <v>0.071000</v>
+        <v>0.120000</v>
       </c>
       <c r="M16" t="n" s="0">
-        <v>0.330000</v>
+        <v>6.300000</v>
       </c>
       <c r="N16" t="n" s="0">
-        <v>0.018000</v>
+        <v>0.350000</v>
       </c>
       <c r="O16" t="n" s="0">
         <v/>
       </c>
       <c r="P16" t="s" s="0">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="Q16" t="n" s="0">
-        <v>2.390000</v>
+        <v>2.540000</v>
       </c>
       <c r="R16" t="n" s="0">
-        <v>81.320000</v>
+        <v>83.730000</v>
       </c>
       <c r="S16" t="n" s="0">
-        <v>9.430000</v>
+        <v>6.800000</v>
       </c>
       <c r="T16" t="n" s="0">
-        <v>5.680000</v>
+        <v>3.930000</v>
       </c>
       <c r="U16" t="n" s="0">
-        <v>6.460000</v>
+        <v>6.390000</v>
       </c>
       <c r="V16" t="n" s="0">
-        <v>2.610000</v>
+        <v>2.780000</v>
       </c>
       <c r="W16" t="n" s="0">
-        <v>8.290000</v>
+        <v>6.710000</v>
       </c>
       <c r="X16" t="n" s="0">
-        <v>15.890000</v>
+        <v>13.200000</v>
       </c>
       <c r="Y16" t="n" s="0">
-        <v>33.180000</v>
+        <v>27.000000</v>
       </c>
       <c r="Z16" t="n" s="0">
-        <v>0.071000</v>
+        <v>0.560000</v>
       </c>
       <c r="AA16" t="n" s="0">
-        <v>0.071000</v>
+        <v>0.120000</v>
       </c>
       <c r="AB16" t="n" s="0">
-        <v>0.330000</v>
+        <v>6.300000</v>
       </c>
       <c r="AC16" t="n" s="0">
         <v/>
@@ -2053,88 +2140,88 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>4.770000</v>
+        <v>2.390000</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>80.480000</v>
+        <v>81.000000</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>9.570000</v>
+        <v>9.500000</v>
       </c>
       <c r="E17" t="n" s="0">
-        <v>4.790000</v>
+        <v>5.640000</v>
       </c>
       <c r="F17" t="n" s="0">
-        <v>10.430000</v>
+        <v>6.640000</v>
       </c>
       <c r="G17" t="n" s="0">
-        <v>3.260000</v>
+        <v>2.710000</v>
       </c>
       <c r="H17" t="n" s="0">
-        <v>8.040000</v>
+        <v>8.360000</v>
       </c>
       <c r="I17" t="n" s="0">
-        <v>20.000000</v>
+        <v>16.140000</v>
       </c>
       <c r="J17" t="n" s="0">
-        <v>35.300000</v>
+        <v>33.640000</v>
       </c>
       <c r="K17" t="n" s="0">
+        <v>0.071000</v>
+      </c>
+      <c r="L17" t="n" s="0">
+        <v>0.071000</v>
+      </c>
+      <c r="M17" t="n" s="0">
+        <v>0.330000</v>
+      </c>
+      <c r="N17" t="n" s="0">
+        <v>0.018000</v>
+      </c>
+      <c r="O17" t="n" s="0">
+        <v/>
+      </c>
+      <c r="P17" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="Q17" t="n" s="0">
         <v>2.390000</v>
       </c>
-      <c r="L17" t="n" s="0">
-        <v>0.034000</v>
-      </c>
-      <c r="M17" t="n" s="0">
-        <v>393.870000</v>
-      </c>
-      <c r="N17" t="n" s="0">
-        <v>21.880000</v>
-      </c>
-      <c r="O17" t="n" s="0">
-        <v/>
-      </c>
-      <c r="P17" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="Q17" t="n" s="0">
-        <v>4.770000</v>
-      </c>
       <c r="R17" t="n" s="0">
-        <v>80.490000</v>
+        <v>81.320000</v>
       </c>
       <c r="S17" t="n" s="0">
-        <v>9.550000</v>
+        <v>9.430000</v>
       </c>
       <c r="T17" t="n" s="0">
-        <v>4.780000</v>
+        <v>5.680000</v>
       </c>
       <c r="U17" t="n" s="0">
-        <v>10.400000</v>
+        <v>6.460000</v>
       </c>
       <c r="V17" t="n" s="0">
-        <v>3.260000</v>
+        <v>2.610000</v>
       </c>
       <c r="W17" t="n" s="0">
-        <v>8.040000</v>
+        <v>8.290000</v>
       </c>
       <c r="X17" t="n" s="0">
-        <v>19.960000</v>
+        <v>15.890000</v>
       </c>
       <c r="Y17" t="n" s="0">
-        <v>35.250000</v>
+        <v>33.180000</v>
       </c>
       <c r="Z17" t="n" s="0">
-        <v>2.390000</v>
+        <v>0.071000</v>
       </c>
       <c r="AA17" t="n" s="0">
-        <v>0.034000</v>
+        <v>0.071000</v>
       </c>
       <c r="AB17" t="n" s="0">
-        <v>393.870000</v>
+        <v>0.330000</v>
       </c>
       <c r="AC17" t="n" s="0">
         <v/>
@@ -2142,88 +2229,88 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>4.600000</v>
+        <v>4.770000</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>80.410000</v>
+        <v>80.480000</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>9.330000</v>
+        <v>9.570000</v>
       </c>
       <c r="E18" t="n" s="0">
-        <v>4.810000</v>
+        <v>4.790000</v>
       </c>
       <c r="F18" t="n" s="0">
-        <v>9.920000</v>
+        <v>10.430000</v>
       </c>
       <c r="G18" t="n" s="0">
-        <v>3.220000</v>
+        <v>3.260000</v>
       </c>
       <c r="H18" t="n" s="0">
-        <v>8.030000</v>
+        <v>8.040000</v>
       </c>
       <c r="I18" t="n" s="0">
-        <v>19.250000</v>
+        <v>20.000000</v>
       </c>
       <c r="J18" t="n" s="0">
-        <v>34.720000</v>
+        <v>35.300000</v>
       </c>
       <c r="K18" t="n" s="0">
-        <v>2.640000</v>
+        <v>2.390000</v>
       </c>
       <c r="L18" t="n" s="0">
         <v>0.034000</v>
       </c>
       <c r="M18" t="n" s="0">
-        <v>458.350000</v>
+        <v>393.870000</v>
       </c>
       <c r="N18" t="n" s="0">
-        <v>25.460000</v>
+        <v>21.880000</v>
       </c>
       <c r="O18" t="n" s="0">
         <v/>
       </c>
       <c r="P18" t="s" s="0">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="Q18" t="n" s="0">
-        <v>4.600000</v>
+        <v>4.770000</v>
       </c>
       <c r="R18" t="n" s="0">
-        <v>80.410000</v>
+        <v>80.490000</v>
       </c>
       <c r="S18" t="n" s="0">
-        <v>9.330000</v>
+        <v>9.550000</v>
       </c>
       <c r="T18" t="n" s="0">
-        <v>4.810000</v>
+        <v>4.780000</v>
       </c>
       <c r="U18" t="n" s="0">
-        <v>9.920000</v>
+        <v>10.400000</v>
       </c>
       <c r="V18" t="n" s="0">
-        <v>3.220000</v>
+        <v>3.260000</v>
       </c>
       <c r="W18" t="n" s="0">
-        <v>8.030000</v>
+        <v>8.040000</v>
       </c>
       <c r="X18" t="n" s="0">
-        <v>19.250000</v>
+        <v>19.960000</v>
       </c>
       <c r="Y18" t="n" s="0">
-        <v>34.720000</v>
+        <v>35.250000</v>
       </c>
       <c r="Z18" t="n" s="0">
-        <v>2.640000</v>
+        <v>2.390000</v>
       </c>
       <c r="AA18" t="n" s="0">
         <v>0.034000</v>
       </c>
       <c r="AB18" t="n" s="0">
-        <v>458.350000</v>
+        <v>393.870000</v>
       </c>
       <c r="AC18" t="n" s="0">
         <v/>
@@ -2231,88 +2318,88 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>5.730000</v>
+        <v>4.600000</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>76.730000</v>
+        <v>80.410000</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>20.550000</v>
+        <v>9.330000</v>
       </c>
       <c r="E19" t="n" s="0">
-        <v>6.000000</v>
+        <v>4.810000</v>
       </c>
       <c r="F19" t="n" s="0">
-        <v>19.450000</v>
+        <v>9.920000</v>
       </c>
       <c r="G19" t="n" s="0">
-        <v>4.270000</v>
+        <v>3.220000</v>
       </c>
       <c r="H19" t="n" s="0">
-        <v>10.270000</v>
+        <v>8.030000</v>
       </c>
       <c r="I19" t="n" s="0">
-        <v>40.000000</v>
+        <v>19.250000</v>
       </c>
       <c r="J19" t="n" s="0">
-        <v>56.360000</v>
+        <v>34.720000</v>
       </c>
       <c r="K19" t="n" s="0">
-        <v>0.000000</v>
+        <v>2.640000</v>
       </c>
       <c r="L19" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.034000</v>
       </c>
       <c r="M19" t="n" s="0">
-        <v>0.000000</v>
+        <v>458.350000</v>
       </c>
       <c r="N19" t="n" s="0">
-        <v>0.000000</v>
+        <v>25.460000</v>
       </c>
       <c r="O19" t="n" s="0">
         <v/>
       </c>
       <c r="P19" t="s" s="0">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="Q19" t="n" s="0">
-        <v>5.640000</v>
+        <v>4.600000</v>
       </c>
       <c r="R19" t="n" s="0">
-        <v>77.270000</v>
+        <v>80.410000</v>
       </c>
       <c r="S19" t="n" s="0">
-        <v>19.640000</v>
+        <v>9.330000</v>
       </c>
       <c r="T19" t="n" s="0">
-        <v>5.910000</v>
+        <v>4.810000</v>
       </c>
       <c r="U19" t="n" s="0">
-        <v>18.730000</v>
+        <v>9.920000</v>
       </c>
       <c r="V19" t="n" s="0">
-        <v>4.180000</v>
+        <v>3.220000</v>
       </c>
       <c r="W19" t="n" s="0">
-        <v>10.090000</v>
+        <v>8.030000</v>
       </c>
       <c r="X19" t="n" s="0">
-        <v>38.360000</v>
+        <v>19.250000</v>
       </c>
       <c r="Y19" t="n" s="0">
-        <v>54.610000</v>
+        <v>34.720000</v>
       </c>
       <c r="Z19" t="n" s="0">
-        <v>0.000000</v>
+        <v>2.640000</v>
       </c>
       <c r="AA19" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.034000</v>
       </c>
       <c r="AB19" t="n" s="0">
-        <v>0.000000</v>
+        <v>458.350000</v>
       </c>
       <c r="AC19" t="n" s="0">
         <v/>
@@ -2320,34 +2407,34 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>3.250000</v>
+        <v>5.730000</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>72.620000</v>
+        <v>76.730000</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>11.000000</v>
+        <v>20.550000</v>
       </c>
       <c r="E20" t="n" s="0">
-        <v>6.380000</v>
+        <v>6.000000</v>
       </c>
       <c r="F20" t="n" s="0">
-        <v>5.880000</v>
+        <v>19.450000</v>
       </c>
       <c r="G20" t="n" s="0">
-        <v>3.000000</v>
+        <v>4.270000</v>
       </c>
       <c r="H20" t="n" s="0">
-        <v>9.380000</v>
+        <v>10.270000</v>
       </c>
       <c r="I20" t="n" s="0">
-        <v>16.880000</v>
+        <v>40.000000</v>
       </c>
       <c r="J20" t="n" s="0">
-        <v>40.060000</v>
+        <v>56.360000</v>
       </c>
       <c r="K20" t="n" s="0">
         <v>0.000000</v>
@@ -2365,34 +2452,34 @@
         <v/>
       </c>
       <c r="P20" t="s" s="0">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="Q20" t="n" s="0">
-        <v>3.000000</v>
+        <v>5.640000</v>
       </c>
       <c r="R20" t="n" s="0">
-        <v>76.620000</v>
+        <v>77.270000</v>
       </c>
       <c r="S20" t="n" s="0">
-        <v>9.380000</v>
+        <v>19.640000</v>
       </c>
       <c r="T20" t="n" s="0">
-        <v>4.750000</v>
+        <v>5.910000</v>
       </c>
       <c r="U20" t="n" s="0">
-        <v>4.380000</v>
+        <v>18.730000</v>
       </c>
       <c r="V20" t="n" s="0">
-        <v>2.620000</v>
+        <v>4.180000</v>
       </c>
       <c r="W20" t="n" s="0">
-        <v>7.380000</v>
+        <v>10.090000</v>
       </c>
       <c r="X20" t="n" s="0">
-        <v>13.750000</v>
+        <v>38.360000</v>
       </c>
       <c r="Y20" t="n" s="0">
-        <v>29.570000</v>
+        <v>54.610000</v>
       </c>
       <c r="Z20" t="n" s="0">
         <v>0.000000</v>
@@ -2409,34 +2496,34 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>5.060000</v>
+        <v>3.250000</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>74.790000</v>
+        <v>72.620000</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>17.570000</v>
+        <v>11.000000</v>
       </c>
       <c r="E21" t="n" s="0">
-        <v>6.550000</v>
+        <v>6.380000</v>
       </c>
       <c r="F21" t="n" s="0">
-        <v>12.210000</v>
+        <v>5.880000</v>
       </c>
       <c r="G21" t="n" s="0">
-        <v>4.300000</v>
+        <v>3.000000</v>
       </c>
       <c r="H21" t="n" s="0">
-        <v>10.850000</v>
+        <v>9.380000</v>
       </c>
       <c r="I21" t="n" s="0">
-        <v>29.790000</v>
+        <v>16.880000</v>
       </c>
       <c r="J21" t="n" s="0">
-        <v>54.760000</v>
+        <v>40.060000</v>
       </c>
       <c r="K21" t="n" s="0">
         <v>0.000000</v>
@@ -2454,34 +2541,34 @@
         <v/>
       </c>
       <c r="P21" t="s" s="0">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="Q21" t="n" s="0">
-        <v>5.020000</v>
+        <v>3.000000</v>
       </c>
       <c r="R21" t="n" s="0">
-        <v>74.810000</v>
+        <v>76.620000</v>
       </c>
       <c r="S21" t="n" s="0">
-        <v>17.510000</v>
+        <v>9.380000</v>
       </c>
       <c r="T21" t="n" s="0">
-        <v>6.510000</v>
+        <v>4.750000</v>
       </c>
       <c r="U21" t="n" s="0">
-        <v>12.130000</v>
+        <v>4.380000</v>
       </c>
       <c r="V21" t="n" s="0">
-        <v>4.300000</v>
+        <v>2.620000</v>
       </c>
       <c r="W21" t="n" s="0">
-        <v>10.810000</v>
+        <v>7.380000</v>
       </c>
       <c r="X21" t="n" s="0">
-        <v>29.640000</v>
+        <v>13.750000</v>
       </c>
       <c r="Y21" t="n" s="0">
-        <v>54.380000</v>
+        <v>29.570000</v>
       </c>
       <c r="Z21" t="n" s="0">
         <v>0.000000</v>
@@ -2498,88 +2585,88 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>3.630000</v>
+        <v>5.060000</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>79.370000</v>
+        <v>74.790000</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>17.790000</v>
+        <v>17.570000</v>
       </c>
       <c r="E22" t="n" s="0">
-        <v>7.260000</v>
+        <v>6.550000</v>
       </c>
       <c r="F22" t="n" s="0">
-        <v>13.420000</v>
+        <v>12.210000</v>
       </c>
       <c r="G22" t="n" s="0">
-        <v>4.740000</v>
+        <v>4.300000</v>
       </c>
       <c r="H22" t="n" s="0">
-        <v>12.000000</v>
+        <v>10.850000</v>
       </c>
       <c r="I22" t="n" s="0">
-        <v>31.210000</v>
+        <v>29.790000</v>
       </c>
       <c r="J22" t="n" s="0">
-        <v>63.410000</v>
+        <v>54.760000</v>
       </c>
       <c r="K22" t="n" s="0">
-        <v>0.053000</v>
+        <v>0.000000</v>
       </c>
       <c r="L22" t="n" s="0">
-        <v>0.053000</v>
+        <v>0.000000</v>
       </c>
       <c r="M22" t="n" s="0">
-        <v>4.010000</v>
+        <v>0.000000</v>
       </c>
       <c r="N22" t="n" s="0">
-        <v>0.220000</v>
+        <v>0.000000</v>
       </c>
       <c r="O22" t="n" s="0">
         <v/>
       </c>
       <c r="P22" t="s" s="0">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="Q22" t="n" s="0">
-        <v>3.580000</v>
+        <v>5.020000</v>
       </c>
       <c r="R22" t="n" s="0">
-        <v>79.370000</v>
+        <v>74.810000</v>
       </c>
       <c r="S22" t="n" s="0">
-        <v>17.630000</v>
+        <v>17.510000</v>
       </c>
       <c r="T22" t="n" s="0">
-        <v>7.320000</v>
+        <v>6.510000</v>
       </c>
       <c r="U22" t="n" s="0">
-        <v>13.420000</v>
+        <v>12.130000</v>
       </c>
       <c r="V22" t="n" s="0">
-        <v>4.740000</v>
+        <v>4.300000</v>
       </c>
       <c r="W22" t="n" s="0">
-        <v>12.050000</v>
+        <v>10.810000</v>
       </c>
       <c r="X22" t="n" s="0">
-        <v>31.050000</v>
+        <v>29.640000</v>
       </c>
       <c r="Y22" t="n" s="0">
-        <v>63.680000</v>
+        <v>54.380000</v>
       </c>
       <c r="Z22" t="n" s="0">
-        <v>0.053000</v>
+        <v>0.000000</v>
       </c>
       <c r="AA22" t="n" s="0">
-        <v>0.053000</v>
+        <v>0.000000</v>
       </c>
       <c r="AB22" t="n" s="0">
-        <v>4.010000</v>
+        <v>0.000000</v>
       </c>
       <c r="AC22" t="n" s="0">
         <v/>
@@ -2587,88 +2674,88 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>3.760000</v>
+        <v>3.630000</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>76.240000</v>
+        <v>79.370000</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>13.120000</v>
+        <v>17.790000</v>
       </c>
       <c r="E23" t="n" s="0">
-        <v>6.760000</v>
+        <v>7.260000</v>
       </c>
       <c r="F23" t="n" s="0">
-        <v>9.280000</v>
+        <v>13.420000</v>
       </c>
       <c r="G23" t="n" s="0">
-        <v>3.480000</v>
+        <v>4.740000</v>
       </c>
       <c r="H23" t="n" s="0">
-        <v>10.240000</v>
+        <v>12.000000</v>
       </c>
       <c r="I23" t="n" s="0">
-        <v>22.400000</v>
+        <v>31.210000</v>
       </c>
       <c r="J23" t="n" s="0">
-        <v>50.170000</v>
+        <v>63.410000</v>
       </c>
       <c r="K23" t="n" s="0">
-        <v>0.040000</v>
+        <v>0.053000</v>
       </c>
       <c r="L23" t="n" s="0">
-        <v>0.040000</v>
+        <v>0.053000</v>
       </c>
       <c r="M23" t="n" s="0">
-        <v>0.960000</v>
+        <v>4.010000</v>
       </c>
       <c r="N23" t="n" s="0">
+        <v>0.220000</v>
+      </c>
+      <c r="O23" t="n" s="0">
+        <v/>
+      </c>
+      <c r="P23" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="Q23" t="n" s="0">
+        <v>3.580000</v>
+      </c>
+      <c r="R23" t="n" s="0">
+        <v>79.370000</v>
+      </c>
+      <c r="S23" t="n" s="0">
+        <v>17.630000</v>
+      </c>
+      <c r="T23" t="n" s="0">
+        <v>7.320000</v>
+      </c>
+      <c r="U23" t="n" s="0">
+        <v>13.420000</v>
+      </c>
+      <c r="V23" t="n" s="0">
+        <v>4.740000</v>
+      </c>
+      <c r="W23" t="n" s="0">
+        <v>12.050000</v>
+      </c>
+      <c r="X23" t="n" s="0">
+        <v>31.050000</v>
+      </c>
+      <c r="Y23" t="n" s="0">
+        <v>63.680000</v>
+      </c>
+      <c r="Z23" t="n" s="0">
         <v>0.053000</v>
       </c>
-      <c r="O23" t="n" s="0">
-        <v/>
-      </c>
-      <c r="P23" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="Q23" t="n" s="0">
-        <v>3.760000</v>
-      </c>
-      <c r="R23" t="n" s="0">
-        <v>76.320000</v>
-      </c>
-      <c r="S23" t="n" s="0">
-        <v>12.840000</v>
-      </c>
-      <c r="T23" t="n" s="0">
-        <v>6.680000</v>
-      </c>
-      <c r="U23" t="n" s="0">
-        <v>9.280000</v>
-      </c>
-      <c r="V23" t="n" s="0">
-        <v>3.480000</v>
-      </c>
-      <c r="W23" t="n" s="0">
-        <v>10.160000</v>
-      </c>
-      <c r="X23" t="n" s="0">
-        <v>22.120000</v>
-      </c>
-      <c r="Y23" t="n" s="0">
-        <v>49.440000</v>
-      </c>
-      <c r="Z23" t="n" s="0">
-        <v>0.040000</v>
-      </c>
       <c r="AA23" t="n" s="0">
-        <v>0.040000</v>
+        <v>0.053000</v>
       </c>
       <c r="AB23" t="n" s="0">
-        <v>0.960000</v>
+        <v>4.010000</v>
       </c>
       <c r="AC23" t="n" s="0">
         <v/>
@@ -2676,88 +2763,88 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>2.750000</v>
+        <v>3.760000</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>79.870000</v>
+        <v>76.240000</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>10.560000</v>
+        <v>13.120000</v>
       </c>
       <c r="E24" t="n" s="0">
-        <v>4.720000</v>
+        <v>6.760000</v>
       </c>
       <c r="F24" t="n" s="0">
-        <v>7.330000</v>
+        <v>9.280000</v>
       </c>
       <c r="G24" t="n" s="0">
-        <v>4.510000</v>
+        <v>3.480000</v>
       </c>
       <c r="H24" t="n" s="0">
-        <v>9.220000</v>
+        <v>10.240000</v>
       </c>
       <c r="I24" t="n" s="0">
-        <v>17.890000</v>
+        <v>22.400000</v>
       </c>
       <c r="J24" t="n" s="0">
-        <v>41.090000</v>
+        <v>50.170000</v>
       </c>
       <c r="K24" t="n" s="0">
-        <v>0.390000</v>
+        <v>0.040000</v>
       </c>
       <c r="L24" t="n" s="0">
-        <v>0.030000</v>
+        <v>0.040000</v>
       </c>
       <c r="M24" t="n" s="0">
-        <v>22.900000</v>
+        <v>0.960000</v>
       </c>
       <c r="N24" t="n" s="0">
-        <v>1.270000</v>
+        <v>0.053000</v>
       </c>
       <c r="O24" t="n" s="0">
         <v/>
       </c>
       <c r="P24" t="s" s="0">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="Q24" t="n" s="0">
-        <v>2.750000</v>
+        <v>3.760000</v>
       </c>
       <c r="R24" t="n" s="0">
-        <v>79.860000</v>
+        <v>76.320000</v>
       </c>
       <c r="S24" t="n" s="0">
-        <v>10.560000</v>
+        <v>12.840000</v>
       </c>
       <c r="T24" t="n" s="0">
-        <v>4.720000</v>
+        <v>6.680000</v>
       </c>
       <c r="U24" t="n" s="0">
-        <v>7.350000</v>
+        <v>9.280000</v>
       </c>
       <c r="V24" t="n" s="0">
-        <v>4.510000</v>
+        <v>3.480000</v>
       </c>
       <c r="W24" t="n" s="0">
-        <v>9.230000</v>
+        <v>10.160000</v>
       </c>
       <c r="X24" t="n" s="0">
-        <v>17.910000</v>
+        <v>22.120000</v>
       </c>
       <c r="Y24" t="n" s="0">
-        <v>41.140000</v>
+        <v>49.440000</v>
       </c>
       <c r="Z24" t="n" s="0">
-        <v>0.390000</v>
+        <v>0.040000</v>
       </c>
       <c r="AA24" t="n" s="0">
-        <v>0.030000</v>
+        <v>0.040000</v>
       </c>
       <c r="AB24" t="n" s="0">
-        <v>22.900000</v>
+        <v>0.960000</v>
       </c>
       <c r="AC24" t="n" s="0">
         <v/>
@@ -2765,88 +2852,88 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>4.450000</v>
+        <v>2.750000</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>80.000000</v>
+        <v>79.870000</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>26.350000</v>
+        <v>10.560000</v>
       </c>
       <c r="E25" t="n" s="0">
-        <v>7.600000</v>
+        <v>4.720000</v>
       </c>
       <c r="F25" t="n" s="0">
-        <v>17.450000</v>
+        <v>7.330000</v>
       </c>
       <c r="G25" t="n" s="0">
-        <v>3.050000</v>
+        <v>4.510000</v>
       </c>
       <c r="H25" t="n" s="0">
-        <v>10.650000</v>
+        <v>9.220000</v>
       </c>
       <c r="I25" t="n" s="0">
-        <v>43.800000</v>
+        <v>17.890000</v>
       </c>
       <c r="J25" t="n" s="0">
-        <v>63.760000</v>
+        <v>41.090000</v>
       </c>
       <c r="K25" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.390000</v>
       </c>
       <c r="L25" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.030000</v>
       </c>
       <c r="M25" t="n" s="0">
-        <v>0.000000</v>
+        <v>22.900000</v>
       </c>
       <c r="N25" t="n" s="0">
-        <v>0.000000</v>
+        <v>1.270000</v>
       </c>
       <c r="O25" t="n" s="0">
         <v/>
       </c>
       <c r="P25" t="s" s="0">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="Q25" t="n" s="0">
-        <v>4.330000</v>
+        <v>2.750000</v>
       </c>
       <c r="R25" t="n" s="0">
-        <v>79.380000</v>
+        <v>79.860000</v>
       </c>
       <c r="S25" t="n" s="0">
-        <v>26.950000</v>
+        <v>10.560000</v>
       </c>
       <c r="T25" t="n" s="0">
-        <v>7.760000</v>
+        <v>4.720000</v>
       </c>
       <c r="U25" t="n" s="0">
-        <v>17.380000</v>
+        <v>7.350000</v>
       </c>
       <c r="V25" t="n" s="0">
-        <v>3.140000</v>
+        <v>4.510000</v>
       </c>
       <c r="W25" t="n" s="0">
-        <v>10.900000</v>
+        <v>9.230000</v>
       </c>
       <c r="X25" t="n" s="0">
-        <v>44.330000</v>
+        <v>17.910000</v>
       </c>
       <c r="Y25" t="n" s="0">
-        <v>64.810000</v>
+        <v>41.140000</v>
       </c>
       <c r="Z25" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.390000</v>
       </c>
       <c r="AA25" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.030000</v>
       </c>
       <c r="AB25" t="n" s="0">
-        <v>0.000000</v>
+        <v>22.900000</v>
       </c>
       <c r="AC25" t="n" s="0">
         <v/>
@@ -2854,34 +2941,34 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>5.110000</v>
+        <v>4.450000</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>74.680000</v>
+        <v>80.000000</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>17.720000</v>
+        <v>26.350000</v>
       </c>
       <c r="E26" t="n" s="0">
-        <v>6.640000</v>
+        <v>7.600000</v>
       </c>
       <c r="F26" t="n" s="0">
-        <v>12.430000</v>
+        <v>17.450000</v>
       </c>
       <c r="G26" t="n" s="0">
-        <v>4.340000</v>
+        <v>3.050000</v>
       </c>
       <c r="H26" t="n" s="0">
-        <v>10.980000</v>
+        <v>10.650000</v>
       </c>
       <c r="I26" t="n" s="0">
-        <v>30.150000</v>
+        <v>43.800000</v>
       </c>
       <c r="J26" t="n" s="0">
-        <v>55.710000</v>
+        <v>63.760000</v>
       </c>
       <c r="K26" t="n" s="0">
         <v>0.000000</v>
@@ -2899,34 +2986,34 @@
         <v/>
       </c>
       <c r="P26" t="s" s="0">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="Q26" t="n" s="0">
-        <v>5.110000</v>
+        <v>4.330000</v>
       </c>
       <c r="R26" t="n" s="0">
-        <v>74.770000</v>
+        <v>79.380000</v>
       </c>
       <c r="S26" t="n" s="0">
-        <v>17.720000</v>
+        <v>26.950000</v>
       </c>
       <c r="T26" t="n" s="0">
-        <v>6.620000</v>
+        <v>7.760000</v>
       </c>
       <c r="U26" t="n" s="0">
-        <v>12.400000</v>
+        <v>17.380000</v>
       </c>
       <c r="V26" t="n" s="0">
-        <v>4.320000</v>
+        <v>3.140000</v>
       </c>
       <c r="W26" t="n" s="0">
-        <v>10.940000</v>
+        <v>10.900000</v>
       </c>
       <c r="X26" t="n" s="0">
-        <v>30.130000</v>
+        <v>44.330000</v>
       </c>
       <c r="Y26" t="n" s="0">
-        <v>55.550000</v>
+        <v>64.810000</v>
       </c>
       <c r="Z26" t="n" s="0">
         <v>0.000000</v>
@@ -2943,88 +3030,88 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>4.710000</v>
+        <v>5.110000</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>73.000000</v>
+        <v>74.680000</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>20.000000</v>
+        <v>17.720000</v>
       </c>
       <c r="E27" t="n" s="0">
-        <v>7.570000</v>
+        <v>6.640000</v>
       </c>
       <c r="F27" t="n" s="0">
-        <v>17.140000</v>
+        <v>12.430000</v>
       </c>
       <c r="G27" t="n" s="0">
-        <v>5.430000</v>
+        <v>4.340000</v>
       </c>
       <c r="H27" t="n" s="0">
-        <v>13.000000</v>
+        <v>10.980000</v>
       </c>
       <c r="I27" t="n" s="0">
-        <v>37.140000</v>
+        <v>30.150000</v>
       </c>
       <c r="J27" t="n" s="0">
-        <v>70.010000</v>
+        <v>55.710000</v>
       </c>
       <c r="K27" t="n" s="0">
-        <v>1.290000</v>
+        <v>0.000000</v>
       </c>
       <c r="L27" t="n" s="0">
-        <v>0.071000</v>
+        <v>0.000000</v>
       </c>
       <c r="M27" t="n" s="0">
-        <v>32.860000</v>
+        <v>0.000000</v>
       </c>
       <c r="N27" t="n" s="0">
-        <v>1.830000</v>
+        <v>0.000000</v>
       </c>
       <c r="O27" t="n" s="0">
         <v/>
       </c>
       <c r="P27" t="s" s="0">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="Q27" t="n" s="0">
-        <v>4.000000</v>
+        <v>5.110000</v>
       </c>
       <c r="R27" t="n" s="0">
-        <v>73.430000</v>
+        <v>74.770000</v>
       </c>
       <c r="S27" t="n" s="0">
-        <v>17.430000</v>
+        <v>17.720000</v>
       </c>
       <c r="T27" t="n" s="0">
-        <v>7.140000</v>
+        <v>6.620000</v>
       </c>
       <c r="U27" t="n" s="0">
-        <v>14.140000</v>
+        <v>12.400000</v>
       </c>
       <c r="V27" t="n" s="0">
-        <v>5.290000</v>
+        <v>4.320000</v>
       </c>
       <c r="W27" t="n" s="0">
-        <v>12.430000</v>
+        <v>10.940000</v>
       </c>
       <c r="X27" t="n" s="0">
-        <v>31.570000</v>
+        <v>30.130000</v>
       </c>
       <c r="Y27" t="n" s="0">
-        <v>64.010000</v>
+        <v>55.550000</v>
       </c>
       <c r="Z27" t="n" s="0">
-        <v>1.290000</v>
+        <v>0.000000</v>
       </c>
       <c r="AA27" t="n" s="0">
-        <v>0.071000</v>
+        <v>0.000000</v>
       </c>
       <c r="AB27" t="n" s="0">
-        <v>32.860000</v>
+        <v>0.000000</v>
       </c>
       <c r="AC27" t="n" s="0">
         <v/>
@@ -3032,88 +3119,88 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>2.620000</v>
+        <v>4.710000</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>83.690000</v>
+        <v>73.000000</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>10.720000</v>
+        <v>20.000000</v>
       </c>
       <c r="E28" t="n" s="0">
-        <v>4.780000</v>
+        <v>7.570000</v>
       </c>
       <c r="F28" t="n" s="0">
-        <v>10.160000</v>
+        <v>17.140000</v>
       </c>
       <c r="G28" t="n" s="0">
-        <v>3.440000</v>
+        <v>5.430000</v>
       </c>
       <c r="H28" t="n" s="0">
-        <v>8.220000</v>
+        <v>13.000000</v>
       </c>
       <c r="I28" t="n" s="0">
-        <v>20.880000</v>
+        <v>37.140000</v>
       </c>
       <c r="J28" t="n" s="0">
-        <v>38.200000</v>
+        <v>70.010000</v>
       </c>
       <c r="K28" t="n" s="0">
-        <v>1.090000</v>
+        <v>1.290000</v>
       </c>
       <c r="L28" t="n" s="0">
-        <v>0.160000</v>
+        <v>0.071000</v>
       </c>
       <c r="M28" t="n" s="0">
-        <v>52.880000</v>
+        <v>32.860000</v>
       </c>
       <c r="N28" t="n" s="0">
-        <v>2.940000</v>
+        <v>1.830000</v>
       </c>
       <c r="O28" t="n" s="0">
         <v/>
       </c>
       <c r="P28" t="s" s="0">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="Q28" t="n" s="0">
-        <v>2.590000</v>
+        <v>4.000000</v>
       </c>
       <c r="R28" t="n" s="0">
-        <v>83.720000</v>
+        <v>73.430000</v>
       </c>
       <c r="S28" t="n" s="0">
-        <v>10.590000</v>
+        <v>17.430000</v>
       </c>
       <c r="T28" t="n" s="0">
-        <v>4.750000</v>
+        <v>7.140000</v>
       </c>
       <c r="U28" t="n" s="0">
-        <v>10.030000</v>
+        <v>14.140000</v>
       </c>
       <c r="V28" t="n" s="0">
-        <v>3.410000</v>
+        <v>5.290000</v>
       </c>
       <c r="W28" t="n" s="0">
-        <v>8.160000</v>
+        <v>12.430000</v>
       </c>
       <c r="X28" t="n" s="0">
-        <v>20.620000</v>
+        <v>31.570000</v>
       </c>
       <c r="Y28" t="n" s="0">
-        <v>37.700000</v>
+        <v>64.010000</v>
       </c>
       <c r="Z28" t="n" s="0">
-        <v>1.090000</v>
+        <v>1.290000</v>
       </c>
       <c r="AA28" t="n" s="0">
-        <v>0.160000</v>
+        <v>0.071000</v>
       </c>
       <c r="AB28" t="n" s="0">
-        <v>52.880000</v>
+        <v>32.860000</v>
       </c>
       <c r="AC28" t="n" s="0">
         <v/>
@@ -3121,88 +3208,88 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>5.000000</v>
+        <v>2.620000</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>75.220000</v>
+        <v>83.690000</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>40.220000</v>
+        <v>10.720000</v>
       </c>
       <c r="E29" t="n" s="0">
-        <v>9.110000</v>
+        <v>4.780000</v>
       </c>
       <c r="F29" t="n" s="0">
-        <v>22.780000</v>
+        <v>10.160000</v>
       </c>
       <c r="G29" t="n" s="0">
-        <v>5.440000</v>
+        <v>3.440000</v>
       </c>
       <c r="H29" t="n" s="0">
-        <v>14.560000</v>
+        <v>8.220000</v>
       </c>
       <c r="I29" t="n" s="0">
-        <v>63.000000</v>
+        <v>20.880000</v>
       </c>
       <c r="J29" t="n" s="0">
-        <v>88.000000</v>
+        <v>38.200000</v>
       </c>
       <c r="K29" t="n" s="0">
-        <v>0.890000</v>
+        <v>1.090000</v>
       </c>
       <c r="L29" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.160000</v>
       </c>
       <c r="M29" t="n" s="0">
-        <v>19.520000</v>
+        <v>52.880000</v>
       </c>
       <c r="N29" t="n" s="0">
-        <v>1.080000</v>
+        <v>2.940000</v>
       </c>
       <c r="O29" t="n" s="0">
         <v/>
       </c>
       <c r="P29" t="s" s="0">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="Q29" t="n" s="0">
-        <v>5.000000</v>
+        <v>2.590000</v>
       </c>
       <c r="R29" t="n" s="0">
-        <v>75.330000</v>
+        <v>83.720000</v>
       </c>
       <c r="S29" t="n" s="0">
-        <v>37.000000</v>
+        <v>10.590000</v>
       </c>
       <c r="T29" t="n" s="0">
-        <v>8.780000</v>
+        <v>4.750000</v>
       </c>
       <c r="U29" t="n" s="0">
-        <v>21.330000</v>
+        <v>10.030000</v>
       </c>
       <c r="V29" t="n" s="0">
-        <v>5.330000</v>
+        <v>3.410000</v>
       </c>
       <c r="W29" t="n" s="0">
-        <v>14.110000</v>
+        <v>8.160000</v>
       </c>
       <c r="X29" t="n" s="0">
-        <v>58.330000</v>
+        <v>20.620000</v>
       </c>
       <c r="Y29" t="n" s="0">
-        <v>83.250000</v>
+        <v>37.700000</v>
       </c>
       <c r="Z29" t="n" s="0">
-        <v>0.890000</v>
+        <v>1.090000</v>
       </c>
       <c r="AA29" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.160000</v>
       </c>
       <c r="AB29" t="n" s="0">
-        <v>19.520000</v>
+        <v>52.880000</v>
       </c>
       <c r="AC29" t="n" s="0">
         <v/>
@@ -3210,88 +3297,88 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>2.840000</v>
+        <v>5.000000</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>81.050000</v>
+        <v>75.220000</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>6.500000</v>
+        <v>40.220000</v>
       </c>
       <c r="E30" t="n" s="0">
-        <v>3.020000</v>
+        <v>9.110000</v>
       </c>
       <c r="F30" t="n" s="0">
-        <v>8.980000</v>
+        <v>22.780000</v>
       </c>
       <c r="G30" t="n" s="0">
-        <v>3.860000</v>
+        <v>5.440000</v>
       </c>
       <c r="H30" t="n" s="0">
-        <v>6.890000</v>
+        <v>14.560000</v>
       </c>
       <c r="I30" t="n" s="0">
-        <v>15.480000</v>
+        <v>63.000000</v>
       </c>
       <c r="J30" t="n" s="0">
-        <v>29.130000</v>
+        <v>88.000000</v>
       </c>
       <c r="K30" t="n" s="0">
-        <v>1.090000</v>
+        <v>0.890000</v>
       </c>
       <c r="L30" t="n" s="0">
-        <v>0.082000</v>
+        <v>0.140000</v>
       </c>
       <c r="M30" t="n" s="0">
-        <v>17.860000</v>
+        <v>19.520000</v>
       </c>
       <c r="N30" t="n" s="0">
-        <v>0.990000</v>
+        <v>1.080000</v>
       </c>
       <c r="O30" t="n" s="0">
         <v/>
       </c>
       <c r="P30" t="s" s="0">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="Q30" t="n" s="0">
-        <v>2.840000</v>
+        <v>5.000000</v>
       </c>
       <c r="R30" t="n" s="0">
-        <v>81.050000</v>
+        <v>75.330000</v>
       </c>
       <c r="S30" t="n" s="0">
-        <v>6.500000</v>
+        <v>37.000000</v>
       </c>
       <c r="T30" t="n" s="0">
-        <v>3.020000</v>
+        <v>8.780000</v>
       </c>
       <c r="U30" t="n" s="0">
-        <v>8.980000</v>
+        <v>21.330000</v>
       </c>
       <c r="V30" t="n" s="0">
-        <v>3.860000</v>
+        <v>5.330000</v>
       </c>
       <c r="W30" t="n" s="0">
-        <v>6.890000</v>
+        <v>14.110000</v>
       </c>
       <c r="X30" t="n" s="0">
-        <v>15.480000</v>
+        <v>58.330000</v>
       </c>
       <c r="Y30" t="n" s="0">
-        <v>29.130000</v>
+        <v>83.250000</v>
       </c>
       <c r="Z30" t="n" s="0">
-        <v>1.090000</v>
+        <v>0.890000</v>
       </c>
       <c r="AA30" t="n" s="0">
-        <v>0.082000</v>
+        <v>0.140000</v>
       </c>
       <c r="AB30" t="n" s="0">
-        <v>17.860000</v>
+        <v>19.520000</v>
       </c>
       <c r="AC30" t="n" s="0">
         <v/>
@@ -3299,88 +3386,88 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>5.000000</v>
+        <v>2.840000</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>78.860000</v>
+        <v>81.050000</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>16.000000</v>
+        <v>6.500000</v>
       </c>
       <c r="E31" t="n" s="0">
-        <v>6.290000</v>
+        <v>3.020000</v>
       </c>
       <c r="F31" t="n" s="0">
-        <v>11.570000</v>
+        <v>8.980000</v>
       </c>
       <c r="G31" t="n" s="0">
-        <v>3.570000</v>
+        <v>3.860000</v>
       </c>
       <c r="H31" t="n" s="0">
-        <v>9.860000</v>
+        <v>6.890000</v>
       </c>
       <c r="I31" t="n" s="0">
-        <v>27.570000</v>
+        <v>15.480000</v>
       </c>
       <c r="J31" t="n" s="0">
-        <v>48.540000</v>
+        <v>29.130000</v>
       </c>
       <c r="K31" t="n" s="0">
-        <v>0.430000</v>
+        <v>1.090000</v>
       </c>
       <c r="L31" t="n" s="0">
-        <v>0.210000</v>
+        <v>0.082000</v>
       </c>
       <c r="M31" t="n" s="0">
-        <v>10.380000</v>
+        <v>17.860000</v>
       </c>
       <c r="N31" t="n" s="0">
-        <v>0.580000</v>
+        <v>0.990000</v>
       </c>
       <c r="O31" t="n" s="0">
         <v/>
       </c>
       <c r="P31" t="s" s="0">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="Q31" t="n" s="0">
-        <v>5.000000</v>
+        <v>2.840000</v>
       </c>
       <c r="R31" t="n" s="0">
-        <v>78.710000</v>
+        <v>81.050000</v>
       </c>
       <c r="S31" t="n" s="0">
-        <v>16.000000</v>
+        <v>6.500000</v>
       </c>
       <c r="T31" t="n" s="0">
-        <v>6.290000</v>
+        <v>3.020000</v>
       </c>
       <c r="U31" t="n" s="0">
-        <v>11.570000</v>
+        <v>8.980000</v>
       </c>
       <c r="V31" t="n" s="0">
-        <v>3.570000</v>
+        <v>3.860000</v>
       </c>
       <c r="W31" t="n" s="0">
-        <v>9.860000</v>
+        <v>6.890000</v>
       </c>
       <c r="X31" t="n" s="0">
-        <v>27.570000</v>
+        <v>15.480000</v>
       </c>
       <c r="Y31" t="n" s="0">
-        <v>48.540000</v>
+        <v>29.130000</v>
       </c>
       <c r="Z31" t="n" s="0">
-        <v>0.430000</v>
+        <v>1.090000</v>
       </c>
       <c r="AA31" t="n" s="0">
-        <v>0.210000</v>
+        <v>0.082000</v>
       </c>
       <c r="AB31" t="n" s="0">
-        <v>10.380000</v>
+        <v>17.860000</v>
       </c>
       <c r="AC31" t="n" s="0">
         <v/>
@@ -3388,88 +3475,88 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v>2.570000</v>
+        <v>5.000000</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>81.910000</v>
+        <v>78.860000</v>
       </c>
       <c r="D32" t="n" s="0">
-        <v>6.770000</v>
+        <v>16.000000</v>
       </c>
       <c r="E32" t="n" s="0">
-        <v>2.910000</v>
+        <v>6.290000</v>
       </c>
       <c r="F32" t="n" s="0">
-        <v>8.710000</v>
+        <v>11.570000</v>
       </c>
       <c r="G32" t="n" s="0">
-        <v>3.460000</v>
+        <v>3.570000</v>
       </c>
       <c r="H32" t="n" s="0">
-        <v>6.370000</v>
+        <v>9.860000</v>
       </c>
       <c r="I32" t="n" s="0">
-        <v>15.490000</v>
+        <v>27.570000</v>
       </c>
       <c r="J32" t="n" s="0">
-        <v>27.280000</v>
+        <v>48.540000</v>
       </c>
       <c r="K32" t="n" s="0">
-        <v>1.140000</v>
+        <v>0.430000</v>
       </c>
       <c r="L32" t="n" s="0">
-        <v>0.100000</v>
+        <v>0.210000</v>
       </c>
       <c r="M32" t="n" s="0">
-        <v>17.140000</v>
+        <v>10.380000</v>
       </c>
       <c r="N32" t="n" s="0">
-        <v>0.950000</v>
+        <v>0.580000</v>
       </c>
       <c r="O32" t="n" s="0">
         <v/>
       </c>
       <c r="P32" t="s" s="0">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="Q32" t="n" s="0">
-        <v>2.570000</v>
+        <v>5.000000</v>
       </c>
       <c r="R32" t="n" s="0">
-        <v>82.000000</v>
+        <v>78.710000</v>
       </c>
       <c r="S32" t="n" s="0">
-        <v>6.740000</v>
+        <v>16.000000</v>
       </c>
       <c r="T32" t="n" s="0">
-        <v>2.910000</v>
+        <v>6.290000</v>
       </c>
       <c r="U32" t="n" s="0">
-        <v>8.690000</v>
+        <v>11.570000</v>
       </c>
       <c r="V32" t="n" s="0">
-        <v>3.460000</v>
+        <v>3.570000</v>
       </c>
       <c r="W32" t="n" s="0">
-        <v>6.370000</v>
+        <v>9.860000</v>
       </c>
       <c r="X32" t="n" s="0">
-        <v>15.430000</v>
+        <v>27.570000</v>
       </c>
       <c r="Y32" t="n" s="0">
-        <v>27.240000</v>
+        <v>48.540000</v>
       </c>
       <c r="Z32" t="n" s="0">
-        <v>1.140000</v>
+        <v>0.430000</v>
       </c>
       <c r="AA32" t="n" s="0">
-        <v>0.100000</v>
+        <v>0.210000</v>
       </c>
       <c r="AB32" t="n" s="0">
-        <v>17.140000</v>
+        <v>10.380000</v>
       </c>
       <c r="AC32" t="n" s="0">
         <v/>
@@ -3477,88 +3564,88 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>3.250000</v>
+        <v>2.570000</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>74.750000</v>
+        <v>81.910000</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>18.330000</v>
+        <v>6.770000</v>
       </c>
       <c r="E33" t="n" s="0">
-        <v>6.080000</v>
+        <v>2.910000</v>
       </c>
       <c r="F33" t="n" s="0">
-        <v>12.000000</v>
+        <v>8.710000</v>
       </c>
       <c r="G33" t="n" s="0">
-        <v>4.670000</v>
+        <v>3.460000</v>
       </c>
       <c r="H33" t="n" s="0">
-        <v>10.750000</v>
+        <v>6.370000</v>
       </c>
       <c r="I33" t="n" s="0">
-        <v>30.330000</v>
+        <v>15.490000</v>
       </c>
       <c r="J33" t="n" s="0">
-        <v>53.940000</v>
+        <v>27.280000</v>
       </c>
       <c r="K33" t="n" s="0">
-        <v>0.330000</v>
+        <v>1.140000</v>
       </c>
       <c r="L33" t="n" s="0">
-        <v>0.021000</v>
+        <v>0.100000</v>
       </c>
       <c r="M33" t="n" s="0">
-        <v>5.170000</v>
+        <v>17.140000</v>
       </c>
       <c r="N33" t="n" s="0">
-        <v>0.290000</v>
+        <v>0.950000</v>
       </c>
       <c r="O33" t="n" s="0">
         <v/>
       </c>
       <c r="P33" t="s" s="0">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="Q33" t="n" s="0">
-        <v>3.250000</v>
+        <v>2.570000</v>
       </c>
       <c r="R33" t="n" s="0">
-        <v>74.670000</v>
+        <v>82.000000</v>
       </c>
       <c r="S33" t="n" s="0">
-        <v>18.330000</v>
+        <v>6.740000</v>
       </c>
       <c r="T33" t="n" s="0">
-        <v>6.080000</v>
+        <v>2.910000</v>
       </c>
       <c r="U33" t="n" s="0">
-        <v>12.170000</v>
+        <v>8.690000</v>
       </c>
       <c r="V33" t="n" s="0">
-        <v>4.670000</v>
+        <v>3.460000</v>
       </c>
       <c r="W33" t="n" s="0">
-        <v>10.750000</v>
+        <v>6.370000</v>
       </c>
       <c r="X33" t="n" s="0">
-        <v>30.500000</v>
+        <v>15.430000</v>
       </c>
       <c r="Y33" t="n" s="0">
-        <v>54.020000</v>
+        <v>27.240000</v>
       </c>
       <c r="Z33" t="n" s="0">
-        <v>0.330000</v>
+        <v>1.140000</v>
       </c>
       <c r="AA33" t="n" s="0">
-        <v>0.021000</v>
+        <v>0.100000</v>
       </c>
       <c r="AB33" t="n" s="0">
-        <v>5.170000</v>
+        <v>17.140000</v>
       </c>
       <c r="AC33" t="n" s="0">
         <v/>
@@ -3566,88 +3653,88 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>1.500000</v>
+        <v>3.250000</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>88.830000</v>
+        <v>74.750000</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>9.670000</v>
+        <v>18.330000</v>
       </c>
       <c r="E34" t="n" s="0">
-        <v>4.830000</v>
+        <v>6.080000</v>
       </c>
       <c r="F34" t="n" s="0">
-        <v>4.330000</v>
+        <v>12.000000</v>
       </c>
       <c r="G34" t="n" s="0">
-        <v>2.170000</v>
+        <v>4.670000</v>
       </c>
       <c r="H34" t="n" s="0">
-        <v>7.000000</v>
+        <v>10.750000</v>
       </c>
       <c r="I34" t="n" s="0">
-        <v>14.000000</v>
+        <v>30.330000</v>
       </c>
       <c r="J34" t="n" s="0">
-        <v>27.960000</v>
+        <v>53.940000</v>
       </c>
       <c r="K34" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.330000</v>
       </c>
       <c r="L34" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.021000</v>
       </c>
       <c r="M34" t="n" s="0">
-        <v>0.000000</v>
+        <v>5.170000</v>
       </c>
       <c r="N34" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.290000</v>
       </c>
       <c r="O34" t="n" s="0">
         <v/>
       </c>
       <c r="P34" t="s" s="0">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="Q34" t="n" s="0">
-        <v>1.500000</v>
+        <v>3.250000</v>
       </c>
       <c r="R34" t="n" s="0">
-        <v>88.830000</v>
+        <v>74.670000</v>
       </c>
       <c r="S34" t="n" s="0">
-        <v>9.670000</v>
+        <v>18.330000</v>
       </c>
       <c r="T34" t="n" s="0">
-        <v>4.830000</v>
+        <v>6.080000</v>
       </c>
       <c r="U34" t="n" s="0">
-        <v>4.330000</v>
+        <v>12.170000</v>
       </c>
       <c r="V34" t="n" s="0">
-        <v>2.170000</v>
+        <v>4.670000</v>
       </c>
       <c r="W34" t="n" s="0">
-        <v>7.000000</v>
+        <v>10.750000</v>
       </c>
       <c r="X34" t="n" s="0">
-        <v>14.000000</v>
+        <v>30.500000</v>
       </c>
       <c r="Y34" t="n" s="0">
-        <v>27.960000</v>
+        <v>54.020000</v>
       </c>
       <c r="Z34" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.330000</v>
       </c>
       <c r="AA34" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.021000</v>
       </c>
       <c r="AB34" t="n" s="0">
-        <v>0.000000</v>
+        <v>5.170000</v>
       </c>
       <c r="AC34" t="n" s="0">
         <v/>
@@ -3655,88 +3742,88 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>6.000000</v>
+        <v>1.500000</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>65.240000</v>
+        <v>88.830000</v>
       </c>
       <c r="D35" t="n" s="0">
-        <v>51.360000</v>
+        <v>9.670000</v>
       </c>
       <c r="E35" t="n" s="0">
-        <v>11.980000</v>
+        <v>4.830000</v>
       </c>
       <c r="F35" t="n" s="0">
-        <v>44.050000</v>
+        <v>4.330000</v>
       </c>
       <c r="G35" t="n" s="0">
-        <v>8.380000</v>
+        <v>2.170000</v>
       </c>
       <c r="H35" t="n" s="0">
-        <v>20.360000</v>
+        <v>7.000000</v>
       </c>
       <c r="I35" t="n" s="0">
-        <v>95.400000</v>
+        <v>14.000000</v>
       </c>
       <c r="J35" t="n" s="0">
-        <v>133.090000</v>
+        <v>27.960000</v>
       </c>
       <c r="K35" t="n" s="0">
-        <v>0.290000</v>
+        <v>0.000000</v>
       </c>
       <c r="L35" t="n" s="0">
-        <v>0.022000</v>
+        <v>0.000000</v>
       </c>
       <c r="M35" t="n" s="0">
-        <v>3.790000</v>
+        <v>0.000000</v>
       </c>
       <c r="N35" t="n" s="0">
-        <v>0.210000</v>
+        <v>0.000000</v>
       </c>
       <c r="O35" t="n" s="0">
         <v/>
       </c>
       <c r="P35" t="s" s="0">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="Q35" t="n" s="0">
-        <v>6.070000</v>
+        <v>1.500000</v>
       </c>
       <c r="R35" t="n" s="0">
-        <v>65.140000</v>
+        <v>88.830000</v>
       </c>
       <c r="S35" t="n" s="0">
-        <v>51.600000</v>
+        <v>9.670000</v>
       </c>
       <c r="T35" t="n" s="0">
-        <v>11.980000</v>
+        <v>4.830000</v>
       </c>
       <c r="U35" t="n" s="0">
-        <v>44.240000</v>
+        <v>4.330000</v>
       </c>
       <c r="V35" t="n" s="0">
-        <v>8.480000</v>
+        <v>2.170000</v>
       </c>
       <c r="W35" t="n" s="0">
-        <v>20.450000</v>
+        <v>7.000000</v>
       </c>
       <c r="X35" t="n" s="0">
-        <v>95.830000</v>
+        <v>14.000000</v>
       </c>
       <c r="Y35" t="n" s="0">
-        <v>133.900000</v>
+        <v>27.960000</v>
       </c>
       <c r="Z35" t="n" s="0">
-        <v>0.290000</v>
+        <v>0.000000</v>
       </c>
       <c r="AA35" t="n" s="0">
-        <v>0.022000</v>
+        <v>0.000000</v>
       </c>
       <c r="AB35" t="n" s="0">
-        <v>3.790000</v>
+        <v>0.000000</v>
       </c>
       <c r="AC35" t="n" s="0">
         <v/>
@@ -3744,7 +3831,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="B36" t="n" s="0">
         <v>6.000000</v>
@@ -3789,34 +3876,34 @@
         <v/>
       </c>
       <c r="P36" t="s" s="0">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="Q36" t="n" s="0">
-        <v>5.860000</v>
+        <v>6.070000</v>
       </c>
       <c r="R36" t="n" s="0">
-        <v>65.310000</v>
+        <v>65.140000</v>
       </c>
       <c r="S36" t="n" s="0">
-        <v>50.380000</v>
+        <v>51.600000</v>
       </c>
       <c r="T36" t="n" s="0">
-        <v>11.930000</v>
+        <v>11.980000</v>
       </c>
       <c r="U36" t="n" s="0">
-        <v>43.120000</v>
+        <v>44.240000</v>
       </c>
       <c r="V36" t="n" s="0">
-        <v>8.330000</v>
+        <v>8.480000</v>
       </c>
       <c r="W36" t="n" s="0">
-        <v>20.260000</v>
+        <v>20.450000</v>
       </c>
       <c r="X36" t="n" s="0">
-        <v>93.500000</v>
+        <v>95.830000</v>
       </c>
       <c r="Y36" t="n" s="0">
-        <v>131.990000</v>
+        <v>133.900000</v>
       </c>
       <c r="Z36" t="n" s="0">
         <v>0.290000</v>
@@ -3833,88 +3920,88 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="B37" t="n" s="0">
-        <v>3.000000</v>
+        <v>6.000000</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>75.110000</v>
+        <v>65.240000</v>
       </c>
       <c r="D37" t="n" s="0">
-        <v>11.330000</v>
+        <v>51.360000</v>
       </c>
       <c r="E37" t="n" s="0">
-        <v>6.000000</v>
+        <v>11.980000</v>
       </c>
       <c r="F37" t="n" s="0">
-        <v>10.110000</v>
+        <v>44.050000</v>
       </c>
       <c r="G37" t="n" s="0">
-        <v>5.110000</v>
+        <v>8.380000</v>
       </c>
       <c r="H37" t="n" s="0">
-        <v>11.110000</v>
+        <v>20.360000</v>
       </c>
       <c r="I37" t="n" s="0">
-        <v>21.440000</v>
+        <v>95.400000</v>
       </c>
       <c r="J37" t="n" s="0">
-        <v>51.120000</v>
+        <v>133.090000</v>
       </c>
       <c r="K37" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.290000</v>
       </c>
       <c r="L37" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.022000</v>
       </c>
       <c r="M37" t="n" s="0">
-        <v>0.000000</v>
+        <v>3.790000</v>
       </c>
       <c r="N37" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.210000</v>
       </c>
       <c r="O37" t="n" s="0">
         <v/>
       </c>
       <c r="P37" t="s" s="0">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="Q37" t="n" s="0">
-        <v>3.000000</v>
+        <v>5.860000</v>
       </c>
       <c r="R37" t="n" s="0">
-        <v>75.330000</v>
+        <v>65.310000</v>
       </c>
       <c r="S37" t="n" s="0">
-        <v>10.890000</v>
+        <v>50.380000</v>
       </c>
       <c r="T37" t="n" s="0">
-        <v>6.000000</v>
+        <v>11.930000</v>
       </c>
       <c r="U37" t="n" s="0">
-        <v>9.890000</v>
+        <v>43.120000</v>
       </c>
       <c r="V37" t="n" s="0">
-        <v>5.110000</v>
+        <v>8.330000</v>
       </c>
       <c r="W37" t="n" s="0">
-        <v>11.110000</v>
+        <v>20.260000</v>
       </c>
       <c r="X37" t="n" s="0">
-        <v>20.780000</v>
+        <v>93.500000</v>
       </c>
       <c r="Y37" t="n" s="0">
-        <v>50.660000</v>
+        <v>131.990000</v>
       </c>
       <c r="Z37" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.290000</v>
       </c>
       <c r="AA37" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.022000</v>
       </c>
       <c r="AB37" t="n" s="0">
-        <v>0.000000</v>
+        <v>3.790000</v>
       </c>
       <c r="AC37" t="n" s="0">
         <v/>
@@ -3922,88 +4009,88 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="B38" t="n" s="0">
         <v>3.000000</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>72.250000</v>
+        <v>75.110000</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>19.000000</v>
+        <v>11.330000</v>
       </c>
       <c r="E38" t="n" s="0">
-        <v>8.750000</v>
+        <v>6.000000</v>
       </c>
       <c r="F38" t="n" s="0">
-        <v>11.000000</v>
+        <v>10.110000</v>
       </c>
       <c r="G38" t="n" s="0">
-        <v>5.000000</v>
+        <v>5.110000</v>
       </c>
       <c r="H38" t="n" s="0">
-        <v>13.750000</v>
+        <v>11.110000</v>
       </c>
       <c r="I38" t="n" s="0">
-        <v>30.000000</v>
+        <v>21.440000</v>
       </c>
       <c r="J38" t="n" s="0">
-        <v>72.030000</v>
+        <v>51.120000</v>
       </c>
       <c r="K38" t="n" s="0">
-        <v>0.500000</v>
+        <v>0.000000</v>
       </c>
       <c r="L38" t="n" s="0">
-        <v>0.500000</v>
+        <v>0.000000</v>
       </c>
       <c r="M38" t="n" s="0">
-        <v>5.710000</v>
+        <v>0.000000</v>
       </c>
       <c r="N38" t="n" s="0">
-        <v>0.320000</v>
+        <v>0.000000</v>
       </c>
       <c r="O38" t="n" s="0">
         <v/>
       </c>
       <c r="P38" t="s" s="0">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="Q38" t="n" s="0">
-        <v>2.250000</v>
+        <v>3.000000</v>
       </c>
       <c r="R38" t="n" s="0">
-        <v>74.000000</v>
+        <v>75.330000</v>
       </c>
       <c r="S38" t="n" s="0">
-        <v>14.250000</v>
+        <v>10.890000</v>
       </c>
       <c r="T38" t="n" s="0">
-        <v>7.750000</v>
+        <v>6.000000</v>
       </c>
       <c r="U38" t="n" s="0">
-        <v>8.250000</v>
+        <v>9.890000</v>
       </c>
       <c r="V38" t="n" s="0">
-        <v>4.250000</v>
+        <v>5.110000</v>
       </c>
       <c r="W38" t="n" s="0">
-        <v>12.000000</v>
+        <v>11.110000</v>
       </c>
       <c r="X38" t="n" s="0">
-        <v>22.500000</v>
+        <v>20.780000</v>
       </c>
       <c r="Y38" t="n" s="0">
-        <v>57.450000</v>
+        <v>50.660000</v>
       </c>
       <c r="Z38" t="n" s="0">
-        <v>0.500000</v>
+        <v>0.000000</v>
       </c>
       <c r="AA38" t="n" s="0">
-        <v>0.500000</v>
+        <v>0.000000</v>
       </c>
       <c r="AB38" t="n" s="0">
-        <v>5.710000</v>
+        <v>0.000000</v>
       </c>
       <c r="AC38" t="n" s="0">
         <v/>
@@ -4011,88 +4098,88 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="B39" t="n" s="0">
-        <v>2.570000</v>
+        <v>3.000000</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>82.860000</v>
+        <v>72.250000</v>
       </c>
       <c r="D39" t="n" s="0">
-        <v>14.860000</v>
+        <v>19.000000</v>
       </c>
       <c r="E39" t="n" s="0">
-        <v>6.430000</v>
+        <v>8.750000</v>
       </c>
       <c r="F39" t="n" s="0">
-        <v>7.710000</v>
+        <v>11.000000</v>
       </c>
       <c r="G39" t="n" s="0">
-        <v>3.570000</v>
+        <v>5.000000</v>
       </c>
       <c r="H39" t="n" s="0">
-        <v>10.000000</v>
+        <v>13.750000</v>
       </c>
       <c r="I39" t="n" s="0">
-        <v>22.570000</v>
+        <v>30.000000</v>
       </c>
       <c r="J39" t="n" s="0">
-        <v>50.990000</v>
+        <v>72.030000</v>
       </c>
       <c r="K39" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.500000</v>
       </c>
       <c r="L39" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.500000</v>
       </c>
       <c r="M39" t="n" s="0">
-        <v>2.580000</v>
+        <v>5.710000</v>
       </c>
       <c r="N39" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.320000</v>
       </c>
       <c r="O39" t="n" s="0">
         <v/>
       </c>
       <c r="P39" t="s" s="0">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="Q39" t="n" s="0">
-        <v>2.430000</v>
+        <v>2.250000</v>
       </c>
       <c r="R39" t="n" s="0">
-        <v>83.140000</v>
+        <v>74.000000</v>
       </c>
       <c r="S39" t="n" s="0">
-        <v>13.140000</v>
+        <v>14.250000</v>
       </c>
       <c r="T39" t="n" s="0">
-        <v>6.000000</v>
+        <v>7.750000</v>
       </c>
       <c r="U39" t="n" s="0">
-        <v>7.140000</v>
+        <v>8.250000</v>
       </c>
       <c r="V39" t="n" s="0">
-        <v>3.570000</v>
+        <v>4.250000</v>
       </c>
       <c r="W39" t="n" s="0">
-        <v>9.570000</v>
+        <v>12.000000</v>
       </c>
       <c r="X39" t="n" s="0">
-        <v>20.290000</v>
+        <v>22.500000</v>
       </c>
       <c r="Y39" t="n" s="0">
-        <v>46.900000</v>
+        <v>57.450000</v>
       </c>
       <c r="Z39" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.500000</v>
       </c>
       <c r="AA39" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.500000</v>
       </c>
       <c r="AB39" t="n" s="0">
-        <v>2.580000</v>
+        <v>5.710000</v>
       </c>
       <c r="AC39" t="n" s="0">
         <v/>
@@ -4100,88 +4187,88 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="B40" t="n" s="0">
-        <v>2.190000</v>
+        <v>2.570000</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>85.000000</v>
+        <v>82.860000</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>9.130000</v>
+        <v>14.860000</v>
       </c>
       <c r="E40" t="n" s="0">
-        <v>3.970000</v>
+        <v>6.430000</v>
       </c>
       <c r="F40" t="n" s="0">
-        <v>8.190000</v>
+        <v>7.710000</v>
       </c>
       <c r="G40" t="n" s="0">
-        <v>3.160000</v>
+        <v>3.570000</v>
       </c>
       <c r="H40" t="n" s="0">
-        <v>7.130000</v>
+        <v>10.000000</v>
       </c>
       <c r="I40" t="n" s="0">
-        <v>17.320000</v>
+        <v>22.570000</v>
       </c>
       <c r="J40" t="n" s="0">
-        <v>31.120000</v>
+        <v>50.990000</v>
       </c>
       <c r="K40" t="n" s="0">
-        <v>0.230000</v>
+        <v>0.140000</v>
       </c>
       <c r="L40" t="n" s="0">
-        <v>0.130000</v>
+        <v>0.140000</v>
       </c>
       <c r="M40" t="n" s="0">
-        <v>1.460000</v>
+        <v>2.580000</v>
       </c>
       <c r="N40" t="n" s="0">
-        <v>0.081000</v>
+        <v>0.140000</v>
       </c>
       <c r="O40" t="n" s="0">
         <v/>
       </c>
       <c r="P40" t="s" s="0">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="Q40" t="n" s="0">
-        <v>2.320000</v>
+        <v>2.430000</v>
       </c>
       <c r="R40" t="n" s="0">
-        <v>84.940000</v>
+        <v>83.140000</v>
       </c>
       <c r="S40" t="n" s="0">
-        <v>9.480000</v>
+        <v>13.140000</v>
       </c>
       <c r="T40" t="n" s="0">
-        <v>4.000000</v>
+        <v>6.000000</v>
       </c>
       <c r="U40" t="n" s="0">
-        <v>8.610000</v>
+        <v>7.140000</v>
       </c>
       <c r="V40" t="n" s="0">
-        <v>3.190000</v>
+        <v>3.570000</v>
       </c>
       <c r="W40" t="n" s="0">
-        <v>7.190000</v>
+        <v>9.570000</v>
       </c>
       <c r="X40" t="n" s="0">
-        <v>18.100000</v>
+        <v>20.290000</v>
       </c>
       <c r="Y40" t="n" s="0">
-        <v>31.810000</v>
+        <v>46.900000</v>
       </c>
       <c r="Z40" t="n" s="0">
-        <v>0.230000</v>
+        <v>0.140000</v>
       </c>
       <c r="AA40" t="n" s="0">
-        <v>0.130000</v>
+        <v>0.140000</v>
       </c>
       <c r="AB40" t="n" s="0">
-        <v>1.460000</v>
+        <v>2.580000</v>
       </c>
       <c r="AC40" t="n" s="0">
         <v/>
@@ -4189,177 +4276,177 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="B41" t="n" s="0">
+        <v>2.190000</v>
+      </c>
+      <c r="C41" t="n" s="0">
+        <v>85.000000</v>
+      </c>
+      <c r="D41" t="n" s="0">
+        <v>9.130000</v>
+      </c>
+      <c r="E41" t="n" s="0">
+        <v>3.970000</v>
+      </c>
+      <c r="F41" t="n" s="0">
+        <v>8.190000</v>
+      </c>
+      <c r="G41" t="n" s="0">
+        <v>3.160000</v>
+      </c>
+      <c r="H41" t="n" s="0">
+        <v>7.130000</v>
+      </c>
+      <c r="I41" t="n" s="0">
+        <v>17.320000</v>
+      </c>
+      <c r="J41" t="n" s="0">
+        <v>31.120000</v>
+      </c>
+      <c r="K41" t="n" s="0">
+        <v>0.230000</v>
+      </c>
+      <c r="L41" t="n" s="0">
+        <v>0.130000</v>
+      </c>
+      <c r="M41" t="n" s="0">
+        <v>1.460000</v>
+      </c>
+      <c r="N41" t="n" s="0">
+        <v>0.081000</v>
+      </c>
+      <c r="O41" t="n" s="0">
+        <v/>
+      </c>
+      <c r="P41" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="Q41" t="n" s="0">
+        <v>2.320000</v>
+      </c>
+      <c r="R41" t="n" s="0">
+        <v>84.940000</v>
+      </c>
+      <c r="S41" t="n" s="0">
+        <v>9.480000</v>
+      </c>
+      <c r="T41" t="n" s="0">
+        <v>4.000000</v>
+      </c>
+      <c r="U41" t="n" s="0">
+        <v>8.610000</v>
+      </c>
+      <c r="V41" t="n" s="0">
+        <v>3.190000</v>
+      </c>
+      <c r="W41" t="n" s="0">
+        <v>7.190000</v>
+      </c>
+      <c r="X41" t="n" s="0">
+        <v>18.100000</v>
+      </c>
+      <c r="Y41" t="n" s="0">
+        <v>31.810000</v>
+      </c>
+      <c r="Z41" t="n" s="0">
+        <v>0.230000</v>
+      </c>
+      <c r="AA41" t="n" s="0">
+        <v>0.130000</v>
+      </c>
+      <c r="AB41" t="n" s="0">
+        <v>1.460000</v>
+      </c>
+      <c r="AC41" t="n" s="0">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B42" t="n" s="0">
         <v>1.600000</v>
       </c>
-      <c r="C41" t="n" s="0">
+      <c r="C42" t="n" s="0">
         <v>85.700000</v>
       </c>
-      <c r="D41" t="n" s="0">
+      <c r="D42" t="n" s="0">
         <v>5.400000</v>
       </c>
-      <c r="E41" t="n" s="0">
+      <c r="E42" t="n" s="0">
         <v>3.800000</v>
       </c>
-      <c r="F41" t="n" s="0">
+      <c r="F42" t="n" s="0">
         <v>3.200000</v>
       </c>
-      <c r="G41" t="n" s="0">
+      <c r="G42" t="n" s="0">
         <v>2.300000</v>
       </c>
-      <c r="H41" t="n" s="0">
+      <c r="H42" t="n" s="0">
         <v>6.100000</v>
       </c>
-      <c r="I41" t="n" s="0">
+      <c r="I42" t="n" s="0">
         <v>8.600000</v>
       </c>
-      <c r="J41" t="n" s="0">
+      <c r="J42" t="n" s="0">
         <v>20.570000</v>
       </c>
-      <c r="K41" t="n" s="0">
+      <c r="K42" t="n" s="0">
         <v>0.600000</v>
       </c>
-      <c r="L41" t="n" s="0">
+      <c r="L42" t="n" s="0">
         <v>0.220000</v>
       </c>
-      <c r="M41" t="n" s="0">
+      <c r="M42" t="n" s="0">
         <v>11.170000</v>
       </c>
-      <c r="N41" t="n" s="0">
+      <c r="N42" t="n" s="0">
         <v>0.620000</v>
       </c>
-      <c r="O41" t="n" s="0">
-        <v/>
-      </c>
-      <c r="P41" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="Q41" t="n" s="0">
+      <c r="O42" t="n" s="0">
+        <v/>
+      </c>
+      <c r="P42" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="Q42" t="n" s="0">
         <v>1.500000</v>
       </c>
-      <c r="R41" t="n" s="0">
+      <c r="R42" t="n" s="0">
         <v>86.100000</v>
       </c>
-      <c r="S41" t="n" s="0">
+      <c r="S42" t="n" s="0">
         <v>5.000000</v>
       </c>
-      <c r="T41" t="n" s="0">
+      <c r="T42" t="n" s="0">
         <v>3.700000</v>
       </c>
-      <c r="U41" t="n" s="0">
+      <c r="U42" t="n" s="0">
         <v>2.800000</v>
       </c>
-      <c r="V41" t="n" s="0">
+      <c r="V42" t="n" s="0">
         <v>1.900000</v>
       </c>
-      <c r="W41" t="n" s="0">
+      <c r="W42" t="n" s="0">
         <v>5.600000</v>
       </c>
-      <c r="X41" t="n" s="0">
+      <c r="X42" t="n" s="0">
         <v>7.800000</v>
       </c>
-      <c r="Y41" t="n" s="0">
+      <c r="Y42" t="n" s="0">
         <v>17.870000</v>
       </c>
-      <c r="Z41" t="n" s="0">
+      <c r="Z42" t="n" s="0">
         <v>0.600000</v>
       </c>
-      <c r="AA41" t="n" s="0">
+      <c r="AA42" t="n" s="0">
         <v>0.220000</v>
       </c>
-      <c r="AB41" t="n" s="0">
+      <c r="AB42" t="n" s="0">
         <v>11.170000</v>
-      </c>
-      <c r="AC41" t="n" s="0">
-        <v/>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n" s="0">
-        <v/>
-      </c>
-      <c r="B42" t="n" s="0">
-        <v/>
-      </c>
-      <c r="C42" t="n" s="0">
-        <v/>
-      </c>
-      <c r="D42" t="n" s="0">
-        <v/>
-      </c>
-      <c r="E42" t="n" s="0">
-        <v/>
-      </c>
-      <c r="F42" t="n" s="0">
-        <v/>
-      </c>
-      <c r="G42" t="n" s="0">
-        <v/>
-      </c>
-      <c r="H42" t="n" s="0">
-        <v/>
-      </c>
-      <c r="I42" t="n" s="0">
-        <v/>
-      </c>
-      <c r="J42" t="n" s="0">
-        <v/>
-      </c>
-      <c r="K42" t="n" s="0">
-        <v/>
-      </c>
-      <c r="L42" t="n" s="0">
-        <v/>
-      </c>
-      <c r="M42" t="n" s="0">
-        <v/>
-      </c>
-      <c r="N42" t="n" s="0">
-        <v/>
-      </c>
-      <c r="O42" t="n" s="0">
-        <v/>
-      </c>
-      <c r="P42" t="n" s="0">
-        <v/>
-      </c>
-      <c r="Q42" t="n" s="0">
-        <v/>
-      </c>
-      <c r="R42" t="n" s="0">
-        <v/>
-      </c>
-      <c r="S42" t="n" s="0">
-        <v/>
-      </c>
-      <c r="T42" t="n" s="0">
-        <v/>
-      </c>
-      <c r="U42" t="n" s="0">
-        <v/>
-      </c>
-      <c r="V42" t="n" s="0">
-        <v/>
-      </c>
-      <c r="W42" t="n" s="0">
-        <v/>
-      </c>
-      <c r="X42" t="n" s="0">
-        <v/>
-      </c>
-      <c r="Y42" t="n" s="0">
-        <v/>
-      </c>
-      <c r="Z42" t="n" s="0">
-        <v/>
-      </c>
-      <c r="AA42" t="n" s="0">
-        <v/>
-      </c>
-      <c r="AB42" t="n" s="0">
-        <v/>
       </c>
       <c r="AC42" t="n" s="0">
         <v/>
@@ -47349,6 +47436,95 @@
         <v/>
       </c>
       <c r="AC525" t="n" s="0">
+        <v/>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="B526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="C526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="D526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="E526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="F526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="G526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="H526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="I526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="J526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="K526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="L526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="M526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="N526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="O526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="P526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="Q526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="R526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="S526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="T526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="U526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="V526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="W526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="X526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="Y526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="Z526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="AA526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="AB526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="AC526" t="n" s="0">
         <v/>
       </c>
     </row>
